--- a/plantillas/lista.xlsx
+++ b/plantillas/lista.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Cuestionario" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'CONTROL DE FIRMAS'!$C$1:$J$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CONTROL DE FIRMAS'!$C$1:$L$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Cuestionario!#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="116">
   <si>
     <t>OPCIÓN A</t>
   </si>
@@ -587,15 +587,6 @@
     <t xml:space="preserve">N.I.F. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sesión 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mañana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarde </t>
-  </si>
-  <si>
     <t xml:space="preserve">Nº Empleado </t>
   </si>
   <si>
@@ -603,6 +594,21 @@
   </si>
   <si>
     <t>Obserbaciones</t>
+  </si>
+  <si>
+    <t>Sesión 2</t>
+  </si>
+  <si>
+    <t>Sesión 4</t>
+  </si>
+  <si>
+    <t>Sesión 3</t>
+  </si>
+  <si>
+    <t>Sesión 1</t>
+  </si>
+  <si>
+    <t>Fecha/Hora</t>
   </si>
 </sst>
 </file>
@@ -935,7 +941,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="99">
+  <borders count="98">
     <border>
       <left/>
       <right/>
@@ -1420,19 +1426,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="55"/>
-      </right>
-      <top style="medium">
-        <color indexed="23"/>
-      </top>
       <bottom style="medium">
         <color indexed="23"/>
       </bottom>
@@ -2409,11 +2402,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2429,14 +2419,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="93" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="94" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="95" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="85" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="84" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2448,14 +2438,83 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="85" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="84" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="97" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="96" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="98" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="97" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="90" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="85" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="86" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="91" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="92" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="89" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="95" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="83" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2472,25 +2531,19 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="94" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="93" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2499,73 +2552,366 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="95" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="91" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="86" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="92" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="93" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="82" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="89" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="90" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="96" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="84" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="80" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2573,8 +2919,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2582,7 +2928,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2591,9 +2937,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2603,367 +2946,17 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="64" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="66" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="77" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="81" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="77" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="83" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="80" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="88" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3407,10 +3400,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:O60"/>
+  <dimension ref="B1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -3420,142 +3413,156 @@
     <col min="3" max="3" width="38.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="18.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="2"/>
-    <col min="12" max="12" width="25.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="91.7109375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="2"/>
+    <col min="6" max="9" width="18.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="2"/>
+    <col min="14" max="14" width="25.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="91.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="18">
+    <row r="1" spans="2:17" ht="18">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="2:15" ht="12" customHeight="1">
+    <row r="2" spans="2:17" ht="12" customHeight="1">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="33" customHeight="1">
-      <c r="B3" s="155" t="s">
+    <row r="3" spans="2:17" ht="33" customHeight="1">
+      <c r="B3" s="177" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="150"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="2:15" ht="15" thickBot="1">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="2:17" ht="15" thickBot="1">
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="2:15" ht="15">
+    <row r="5" spans="2:17" ht="15">
       <c r="B5" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="182" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="184"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="158" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="180" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="185"/>
+      <c r="K6" s="186"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="2:15" ht="12.75" customHeight="1">
-      <c r="B7" s="158"/>
-      <c r="C7" s="167" t="s">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="2:17" ht="12.75" customHeight="1">
+      <c r="B7" s="180"/>
+      <c r="C7" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="189"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="158"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="180"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="142"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="2:15" ht="13.5" thickBot="1">
-      <c r="B9" s="159"/>
-      <c r="C9" s="170" t="s">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="2:17" ht="13.5" thickBot="1">
+      <c r="B9" s="181"/>
+      <c r="C9" s="190" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="192"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="2:15" ht="14.25" customHeight="1">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="2:17" ht="14.25" customHeight="1">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="2:15" ht="27.75" customHeight="1" thickBot="1">
-      <c r="C11" s="156"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="157"/>
-    </row>
-    <row r="12" spans="2:15" ht="19.5">
+    <row r="11" spans="2:17" ht="27.75" customHeight="1" thickBot="1">
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="179"/>
+    </row>
+    <row r="12" spans="2:17" ht="19.5">
       <c r="B12" s="130"/>
       <c r="C12" s="131"/>
       <c r="D12" s="131"/>
@@ -3563,21 +3570,25 @@
       <c r="F12" s="131"/>
       <c r="G12" s="131"/>
       <c r="H12" s="131"/>
-      <c r="I12" s="144"/>
-    </row>
-    <row r="13" spans="2:15" ht="15">
-      <c r="B13" s="160" t="s">
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="143"/>
+    </row>
+    <row r="13" spans="2:17" ht="15">
+      <c r="B13" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="326"/>
-    </row>
-    <row r="14" spans="2:15" ht="15">
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="176"/>
+    </row>
+    <row r="14" spans="2:17" ht="15">
       <c r="B14" s="125"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -3585,21 +3596,25 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="145"/>
-    </row>
-    <row r="15" spans="2:15" ht="15">
-      <c r="B15" s="160" t="s">
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="144"/>
+    </row>
+    <row r="15" spans="2:17" ht="15">
+      <c r="B15" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="145"/>
-    </row>
-    <row r="16" spans="2:15" ht="15">
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="144"/>
+    </row>
+    <row r="16" spans="2:17" ht="15">
       <c r="B16" s="132"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -3607,21 +3622,25 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="145"/>
-    </row>
-    <row r="17" spans="2:9" ht="15">
-      <c r="B17" s="160" t="s">
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="144"/>
+    </row>
+    <row r="17" spans="2:11" ht="15">
+      <c r="B17" s="174" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="161"/>
+      <c r="C17" s="175"/>
       <c r="D17" s="134"/>
       <c r="E17" s="134"/>
       <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="146"/>
-    </row>
-    <row r="18" spans="2:9" ht="15">
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="145"/>
+    </row>
+    <row r="18" spans="2:11" ht="15">
       <c r="B18" s="132"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -3629,21 +3648,25 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="145"/>
-    </row>
-    <row r="19" spans="2:9" ht="15">
-      <c r="B19" s="160" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="144"/>
+    </row>
+    <row r="19" spans="2:11" ht="15">
+      <c r="B19" s="174" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="146"/>
-    </row>
-    <row r="20" spans="2:9" ht="15">
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="145"/>
+    </row>
+    <row r="20" spans="2:11" ht="15">
       <c r="B20" s="132"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -3651,9 +3674,11 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="145"/>
-    </row>
-    <row r="21" spans="2:9" ht="15">
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="144"/>
+    </row>
+    <row r="21" spans="2:11" ht="15">
       <c r="B21" s="124" t="s">
         <v>2</v>
       </c>
@@ -3663,9 +3688,11 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="145"/>
-    </row>
-    <row r="22" spans="2:9" ht="15">
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="144"/>
+    </row>
+    <row r="22" spans="2:11" ht="15">
       <c r="B22" s="124" t="s">
         <v>3</v>
       </c>
@@ -3675,9 +3702,11 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="145"/>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" thickBot="1">
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="144"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1">
       <c r="B23" s="126"/>
       <c r="C23" s="133"/>
       <c r="D23" s="133"/>
@@ -3685,416 +3714,497 @@
       <c r="F23" s="133"/>
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
-      <c r="I23" s="147"/>
-    </row>
-    <row r="24" spans="2:9" ht="10.5" customHeight="1" thickBot="1">
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="146"/>
+    </row>
+    <row r="24" spans="2:11" ht="10.5" customHeight="1" thickBot="1">
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="2:9" ht="30.75" customHeight="1" thickBot="1">
+    <row r="25" spans="2:11" ht="30.75" customHeight="1" thickBot="1">
       <c r="C25" s="7"/>
-      <c r="E25" s="182" t="s">
+      <c r="E25" s="165" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="184"/>
-    </row>
-    <row r="26" spans="2:9" ht="39" customHeight="1" thickBot="1">
-      <c r="B26" s="191" t="s">
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="167"/>
+    </row>
+    <row r="26" spans="2:11" ht="39" customHeight="1" thickBot="1">
+      <c r="B26" s="172" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="191"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="189" t="s">
+      <c r="C26" s="172"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="155" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="155" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="155" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="155" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="170" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="170" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="168" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" s="149" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B27" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="190"/>
-      <c r="G26" s="187" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="187" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="185" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" s="150" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B27" s="148" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="148" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="149" t="s">
+      <c r="C27" s="147" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="148" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="135" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="135" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="188"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="186"/>
-    </row>
-    <row r="28" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="127"/>
-    </row>
-    <row r="29" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="128"/>
-    </row>
-    <row r="30" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="128"/>
-    </row>
-    <row r="31" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B31" s="152"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="128"/>
-    </row>
-    <row r="32" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B32" s="152"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="128"/>
-    </row>
-    <row r="33" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="128"/>
-    </row>
-    <row r="34" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B34" s="152"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="128"/>
-    </row>
-    <row r="35" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="128"/>
-    </row>
-    <row r="36" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B36" s="152"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="152"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="128"/>
-    </row>
-    <row r="37" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B37" s="152"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="128"/>
-    </row>
-    <row r="38" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B38" s="152"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="128"/>
-    </row>
-    <row r="39" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B39" s="152"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="128"/>
-    </row>
-    <row r="40" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B40" s="152"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="128"/>
-    </row>
-    <row r="41" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="128"/>
-    </row>
-    <row r="42" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B42" s="152"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="152"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="128"/>
-    </row>
-    <row r="43" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B43" s="152"/>
-      <c r="C43" s="152"/>
-      <c r="D43" s="152"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="128"/>
-    </row>
-    <row r="44" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B44" s="152"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="128"/>
-    </row>
-    <row r="45" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B45" s="152"/>
-      <c r="C45" s="152"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="128"/>
-    </row>
-    <row r="46" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B46" s="152"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="128"/>
-    </row>
-    <row r="47" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B47" s="152"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="128"/>
-    </row>
-    <row r="48" spans="2:9" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B48" s="152"/>
-      <c r="C48" s="152"/>
-      <c r="D48" s="152"/>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="128"/>
-    </row>
-    <row r="49" spans="2:12" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B49" s="152"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="128"/>
-    </row>
-    <row r="50" spans="2:12" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B50" s="152"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="152"/>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="128"/>
-    </row>
-    <row r="51" spans="2:12" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B51" s="152"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="128"/>
-    </row>
-    <row r="52" spans="2:12" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B52" s="153"/>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="154"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="128"/>
-    </row>
-    <row r="53" spans="2:12" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B53" s="141"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="139"/>
+      <c r="E27" s="326" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="326" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="326" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="326" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="169"/>
+    </row>
+    <row r="28" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B28" s="151"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="127"/>
+    </row>
+    <row r="29" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="128"/>
+    </row>
+    <row r="30" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B30" s="151"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="128"/>
+    </row>
+    <row r="31" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B31" s="151"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="128"/>
+    </row>
+    <row r="32" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B32" s="151"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="128"/>
+    </row>
+    <row r="33" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B33" s="151"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="128"/>
+    </row>
+    <row r="34" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B34" s="151"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="128"/>
+    </row>
+    <row r="35" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B35" s="151"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="128"/>
+    </row>
+    <row r="36" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B36" s="151"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="128"/>
+    </row>
+    <row r="37" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B37" s="151"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="128"/>
+    </row>
+    <row r="38" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B38" s="151"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="128"/>
+    </row>
+    <row r="39" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B39" s="151"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="136"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="136"/>
+      <c r="K39" s="128"/>
+    </row>
+    <row r="40" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B40" s="151"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="136"/>
+      <c r="I40" s="136"/>
+      <c r="J40" s="136"/>
+      <c r="K40" s="128"/>
+    </row>
+    <row r="41" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B41" s="151"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="128"/>
+    </row>
+    <row r="42" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="128"/>
+    </row>
+    <row r="43" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B43" s="151"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="136"/>
+      <c r="K43" s="128"/>
+    </row>
+    <row r="44" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="136"/>
+      <c r="K44" s="128"/>
+    </row>
+    <row r="45" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B45" s="151"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="128"/>
+    </row>
+    <row r="46" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B46" s="151"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
+      <c r="K46" s="128"/>
+    </row>
+    <row r="47" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B47" s="151"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="136"/>
+      <c r="K47" s="128"/>
+    </row>
+    <row r="48" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="136"/>
+      <c r="K48" s="128"/>
+    </row>
+    <row r="49" spans="2:14" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B49" s="151"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="128"/>
+    </row>
+    <row r="50" spans="2:14" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B50" s="151"/>
+      <c r="C50" s="151"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="136"/>
+      <c r="K50" s="128"/>
+    </row>
+    <row r="51" spans="2:14" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B51" s="151"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="128"/>
+    </row>
+    <row r="52" spans="2:14" ht="35.25" customHeight="1" thickBot="1">
+      <c r="B52" s="152"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="152"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="136"/>
+      <c r="K52" s="128"/>
+    </row>
+    <row r="53" spans="2:14" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B53" s="140"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="138"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="2:12">
-      <c r="B54" s="173" t="s">
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
-      <c r="E54" s="174"/>
-      <c r="F54" s="174"/>
-      <c r="G54" s="174"/>
-      <c r="H54" s="174"/>
-      <c r="I54" s="175"/>
-      <c r="J54" s="140"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="2:12">
-      <c r="B55" s="176"/>
-      <c r="C55" s="177"/>
-      <c r="D55" s="177"/>
-      <c r="E55" s="177"/>
-      <c r="F55" s="177"/>
-      <c r="G55" s="177"/>
-      <c r="H55" s="177"/>
-      <c r="I55" s="178"/>
-      <c r="J55" s="140"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="2:12">
-      <c r="B56" s="176"/>
-      <c r="C56" s="177"/>
-      <c r="D56" s="177"/>
-      <c r="E56" s="177"/>
-      <c r="F56" s="177"/>
-      <c r="G56" s="177"/>
-      <c r="H56" s="177"/>
-      <c r="I56" s="178"/>
-      <c r="J56" s="140"/>
-    </row>
-    <row r="57" spans="2:12" ht="13.5" thickBot="1">
-      <c r="B57" s="179"/>
-      <c r="C57" s="180"/>
-      <c r="D57" s="180"/>
-      <c r="E57" s="180"/>
-      <c r="F57" s="180"/>
-      <c r="G57" s="180"/>
-      <c r="H57" s="180"/>
-      <c r="I57" s="181"/>
-      <c r="J57" s="140"/>
-    </row>
-    <row r="58" spans="2:12">
-      <c r="B58" s="141"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="140"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="140"/>
-    </row>
-    <row r="59" spans="2:12">
-      <c r="B59" s="141"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="141"/>
-      <c r="H59" s="141"/>
-      <c r="I59" s="141"/>
-      <c r="J59" s="141"/>
-    </row>
-    <row r="60" spans="2:12">
+      <c r="C54" s="157"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="157"/>
+      <c r="K54" s="158"/>
+      <c r="L54" s="139"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="159"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="160"/>
+      <c r="F55" s="160"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="160"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="161"/>
+      <c r="L55" s="139"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="159"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="160"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="160"/>
+      <c r="I56" s="160"/>
+      <c r="J56" s="160"/>
+      <c r="K56" s="161"/>
+      <c r="L56" s="139"/>
+    </row>
+    <row r="57" spans="2:14" ht="13.5" thickBot="1">
+      <c r="B57" s="162"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
+      <c r="E57" s="163"/>
+      <c r="F57" s="163"/>
+      <c r="G57" s="163"/>
+      <c r="H57" s="163"/>
+      <c r="I57" s="163"/>
+      <c r="J57" s="163"/>
+      <c r="K57" s="164"/>
+      <c r="L57" s="139"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="140"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="139"/>
+      <c r="I58" s="139"/>
+      <c r="J58" s="139"/>
+      <c r="K58" s="139"/>
+      <c r="L58" s="139"/>
+    </row>
+    <row r="59" spans="2:14">
+      <c r="B59" s="140"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="140"/>
+      <c r="L59" s="140"/>
+    </row>
+    <row r="60" spans="2:14">
       <c r="C60" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B54:I57"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B13:I13"/>
+  <mergeCells count="16">
+    <mergeCell ref="B13:K13"/>
     <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C11:L11"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="C5:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="C5:K6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="B54:K57"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.16" top="0.39" bottom="1" header="0" footer="0"/>
@@ -4124,75 +4234,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="48" customHeight="1">
-      <c r="A1" s="193"/>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="195"/>
+      <c r="A1" s="311"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="313"/>
     </row>
     <row r="2" spans="1:20" ht="51" customHeight="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="323" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="207"/>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="324"/>
+      <c r="N2" s="325"/>
       <c r="O2" s="119"/>
     </row>
     <row r="3" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="314" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="198"/>
+      <c r="B3" s="315"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
+      <c r="F3" s="315"/>
+      <c r="G3" s="315"/>
+      <c r="H3" s="315"/>
+      <c r="I3" s="315"/>
+      <c r="J3" s="315"/>
+      <c r="K3" s="315"/>
+      <c r="L3" s="315"/>
+      <c r="M3" s="315"/>
+      <c r="N3" s="316"/>
     </row>
     <row r="4" spans="1:20" ht="40.5" customHeight="1">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="317" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="200"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="200"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="200"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="201"/>
+      <c r="B4" s="318"/>
+      <c r="C4" s="318"/>
+      <c r="D4" s="318"/>
+      <c r="E4" s="318"/>
+      <c r="F4" s="318"/>
+      <c r="G4" s="318"/>
+      <c r="H4" s="318"/>
+      <c r="I4" s="318"/>
+      <c r="J4" s="318"/>
+      <c r="K4" s="318"/>
+      <c r="L4" s="318"/>
+      <c r="M4" s="318"/>
+      <c r="N4" s="319"/>
       <c r="O4" s="120"/>
       <c r="P4" s="120"/>
       <c r="Q4" s="120"/>
@@ -4200,20 +4310,20 @@
       <c r="S4" s="120"/>
     </row>
     <row r="5" spans="1:20" s="121" customFormat="1" ht="3" customHeight="1">
-      <c r="A5" s="202"/>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="203"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="203"/>
-      <c r="I5" s="203"/>
-      <c r="J5" s="203"/>
-      <c r="K5" s="203"/>
-      <c r="L5" s="203"/>
-      <c r="M5" s="203"/>
-      <c r="N5" s="204"/>
+      <c r="A5" s="320"/>
+      <c r="B5" s="321"/>
+      <c r="C5" s="321"/>
+      <c r="D5" s="321"/>
+      <c r="E5" s="321"/>
+      <c r="F5" s="321"/>
+      <c r="G5" s="321"/>
+      <c r="H5" s="321"/>
+      <c r="I5" s="321"/>
+      <c r="J5" s="321"/>
+      <c r="K5" s="321"/>
+      <c r="L5" s="321"/>
+      <c r="M5" s="321"/>
+      <c r="N5" s="322"/>
       <c r="O5" s="115"/>
       <c r="P5" s="115"/>
       <c r="Q5" s="115"/>
@@ -4221,22 +4331,22 @@
       <c r="S5" s="115"/>
     </row>
     <row r="6" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="296" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="210"/>
-      <c r="K6" s="210"/>
-      <c r="L6" s="210"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="211"/>
+      <c r="B6" s="297"/>
+      <c r="C6" s="298"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="297"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="298"/>
+      <c r="J6" s="298"/>
+      <c r="K6" s="298"/>
+      <c r="L6" s="298"/>
+      <c r="M6" s="298"/>
+      <c r="N6" s="299"/>
       <c r="O6" s="120"/>
       <c r="P6" s="120"/>
       <c r="Q6" s="120"/>
@@ -4244,24 +4354,24 @@
       <c r="S6" s="120"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="214" t="s">
+      <c r="A7" s="302" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="215"/>
+      <c r="B7" s="303"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="216" t="s">
+      <c r="D7" s="304" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="217"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="219"/>
-      <c r="L7" s="219"/>
-      <c r="M7" s="219"/>
-      <c r="N7" s="220"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="212"/>
       <c r="O7" s="120"/>
       <c r="P7" s="120"/>
       <c r="Q7" s="120"/>
@@ -4272,23 +4382,23 @@
       <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="218"/>
-      <c r="C8" s="220"/>
-      <c r="D8" s="221" t="s">
+      <c r="B8" s="210"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="306" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="222"/>
+      <c r="E8" s="307"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="223" t="s">
+      <c r="G8" s="308" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="225"/>
-      <c r="K8" s="218"/>
-      <c r="L8" s="219"/>
-      <c r="M8" s="219"/>
-      <c r="N8" s="220"/>
+      <c r="H8" s="309"/>
+      <c r="I8" s="309"/>
+      <c r="J8" s="310"/>
+      <c r="K8" s="210"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="211"/>
+      <c r="N8" s="212"/>
       <c r="O8" s="120"/>
       <c r="P8" s="120"/>
       <c r="Q8" s="120"/>
@@ -4296,22 +4406,22 @@
       <c r="S8" s="120"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="212" t="s">
+      <c r="A9" s="300" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="213"/>
-      <c r="C9" s="218"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="219"/>
-      <c r="I9" s="219"/>
-      <c r="J9" s="219"/>
-      <c r="K9" s="219"/>
-      <c r="L9" s="219"/>
-      <c r="M9" s="219"/>
-      <c r="N9" s="220"/>
+      <c r="B9" s="301"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="212"/>
       <c r="O9" s="120"/>
       <c r="P9" s="115"/>
       <c r="Q9" s="120"/>
@@ -4319,22 +4429,22 @@
       <c r="S9" s="120"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="283" t="s">
+      <c r="A10" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="284"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="219"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="219"/>
-      <c r="N10" s="220"/>
+      <c r="B10" s="209"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="212"/>
       <c r="O10" s="120"/>
       <c r="P10" s="120"/>
       <c r="Q10" s="120"/>
@@ -4387,22 +4497,22 @@
       <c r="T12" s="115"/>
     </row>
     <row r="13" spans="1:20" ht="21" customHeight="1">
-      <c r="A13" s="285" t="s">
+      <c r="A13" s="213" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="286"/>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="286"/>
-      <c r="M13" s="286"/>
-      <c r="N13" s="287"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
+      <c r="J13" s="214"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="215"/>
       <c r="O13" s="120"/>
       <c r="P13" s="120"/>
       <c r="Q13" s="120"/>
@@ -4437,10 +4547,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="29"/>
-      <c r="C15" s="288" t="s">
+      <c r="C15" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="289"/>
+      <c r="D15" s="217"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31" t="s">
         <v>18</v>
@@ -4513,21 +4623,21 @@
       <c r="T17" s="120"/>
     </row>
     <row r="18" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A18" s="229" t="s">
+      <c r="A18" s="235" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="230"/>
-      <c r="C18" s="230"/>
-      <c r="D18" s="231"/>
+      <c r="B18" s="236"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="283"/>
       <c r="E18" s="44"/>
-      <c r="F18" s="300" t="s">
+      <c r="F18" s="285" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="300"/>
-      <c r="H18" s="300"/>
-      <c r="I18" s="300"/>
-      <c r="J18" s="300"/>
-      <c r="K18" s="301"/>
+      <c r="G18" s="285"/>
+      <c r="H18" s="285"/>
+      <c r="I18" s="285"/>
+      <c r="J18" s="285"/>
+      <c r="K18" s="286"/>
       <c r="L18" s="38"/>
       <c r="M18" s="39"/>
       <c r="N18" s="34"/>
@@ -4539,7 +4649,7 @@
       <c r="T18" s="120"/>
     </row>
     <row r="19" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A19" s="232" t="s">
+      <c r="A19" s="237" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="233"/>
@@ -4563,21 +4673,21 @@
       <c r="T19" s="120"/>
     </row>
     <row r="20" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A20" s="232" t="s">
+      <c r="A20" s="237" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="233"/>
       <c r="C20" s="234"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="235" t="s">
+      <c r="F20" s="284" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="235"/>
-      <c r="H20" s="235"/>
-      <c r="I20" s="235"/>
-      <c r="J20" s="235"/>
-      <c r="K20" s="235"/>
+      <c r="G20" s="284"/>
+      <c r="H20" s="284"/>
+      <c r="I20" s="284"/>
+      <c r="J20" s="284"/>
+      <c r="K20" s="284"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="34"/>
@@ -4589,19 +4699,19 @@
       <c r="T20" s="120"/>
     </row>
     <row r="21" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A21" s="232" t="s">
+      <c r="A21" s="237" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="233"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
-      <c r="F21" s="235"/>
-      <c r="G21" s="235"/>
-      <c r="H21" s="235"/>
-      <c r="I21" s="235"/>
-      <c r="J21" s="235"/>
-      <c r="K21" s="235"/>
+      <c r="F21" s="284"/>
+      <c r="G21" s="284"/>
+      <c r="H21" s="284"/>
+      <c r="I21" s="284"/>
+      <c r="J21" s="284"/>
+      <c r="K21" s="284"/>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="34"/>
@@ -4613,7 +4723,7 @@
       <c r="T21" s="120"/>
     </row>
     <row r="22" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A22" s="232" t="s">
+      <c r="A22" s="237" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="233"/>
@@ -4637,7 +4747,7 @@
       <c r="T22" s="120"/>
     </row>
     <row r="23" spans="1:20" ht="12" customHeight="1">
-      <c r="A23" s="232" t="s">
+      <c r="A23" s="237" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="233"/>
@@ -4663,7 +4773,7 @@
       <c r="T23" s="120"/>
     </row>
     <row r="24" spans="1:20" ht="12" customHeight="1">
-      <c r="A24" s="232" t="s">
+      <c r="A24" s="237" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="233"/>
@@ -4689,7 +4799,7 @@
       <c r="T24" s="120"/>
     </row>
     <row r="25" spans="1:20" ht="12" customHeight="1">
-      <c r="A25" s="232" t="s">
+      <c r="A25" s="237" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="233"/>
@@ -4715,7 +4825,7 @@
       <c r="T25" s="120"/>
     </row>
     <row r="26" spans="1:20" ht="12" customHeight="1">
-      <c r="A26" s="232" t="s">
+      <c r="A26" s="237" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="233"/>
@@ -4739,20 +4849,20 @@
       <c r="T26" s="120"/>
     </row>
     <row r="27" spans="1:20" ht="12" customHeight="1">
-      <c r="A27" s="323" t="s">
+      <c r="A27" s="293" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="324"/>
-      <c r="C27" s="325"/>
+      <c r="B27" s="294"/>
+      <c r="C27" s="295"/>
       <c r="D27" s="38"/>
       <c r="E27" s="60"/>
-      <c r="F27" s="320" t="s">
+      <c r="F27" s="290" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="320"/>
-      <c r="H27" s="320"/>
-      <c r="I27" s="320"/>
-      <c r="J27" s="320"/>
+      <c r="G27" s="290"/>
+      <c r="H27" s="290"/>
+      <c r="I27" s="290"/>
+      <c r="J27" s="290"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="M27" s="59"/>
@@ -4765,18 +4875,18 @@
       <c r="T27" s="120"/>
     </row>
     <row r="28" spans="1:20" ht="12" customHeight="1">
-      <c r="A28" s="317" t="s">
+      <c r="A28" s="287" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="318"/>
-      <c r="C28" s="319"/>
+      <c r="B28" s="288"/>
+      <c r="C28" s="289"/>
       <c r="D28" s="38"/>
       <c r="E28" s="60"/>
-      <c r="F28" s="320"/>
-      <c r="G28" s="320"/>
-      <c r="H28" s="320"/>
-      <c r="I28" s="320"/>
-      <c r="J28" s="320"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="290"/>
+      <c r="H28" s="290"/>
+      <c r="I28" s="290"/>
+      <c r="J28" s="290"/>
       <c r="K28" s="32"/>
       <c r="L28" s="33"/>
       <c r="M28" s="59"/>
@@ -4813,10 +4923,10 @@
       <c r="T29" s="120"/>
     </row>
     <row r="30" spans="1:20" ht="12" customHeight="1">
-      <c r="A30" s="321"/>
-      <c r="B30" s="322"/>
-      <c r="C30" s="322"/>
-      <c r="D30" s="322"/>
+      <c r="A30" s="291"/>
+      <c r="B30" s="292"/>
+      <c r="C30" s="292"/>
+      <c r="D30" s="292"/>
       <c r="E30" s="30"/>
       <c r="F30" s="46" t="s">
         <v>37</v>
@@ -4837,11 +4947,11 @@
       <c r="T30" s="120"/>
     </row>
     <row r="31" spans="1:20" ht="12" customHeight="1">
-      <c r="A31" s="229" t="s">
+      <c r="A31" s="235" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="230"/>
-      <c r="C31" s="230"/>
+      <c r="B31" s="236"/>
+      <c r="C31" s="236"/>
       <c r="D31" s="68"/>
       <c r="E31" s="32"/>
       <c r="F31" s="46" t="s">
@@ -4887,12 +4997,12 @@
       <c r="T32" s="120"/>
     </row>
     <row r="33" spans="1:20" ht="12" customHeight="1">
-      <c r="A33" s="232" t="s">
+      <c r="A33" s="237" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="234"/>
-      <c r="C33" s="299"/>
-      <c r="D33" s="299"/>
+      <c r="C33" s="238"/>
+      <c r="D33" s="238"/>
       <c r="E33" s="39"/>
       <c r="F33" s="46" t="s">
         <v>41</v>
@@ -5169,22 +5279,22 @@
       <c r="T44" s="115"/>
     </row>
     <row r="45" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A45" s="226" t="s">
+      <c r="A45" s="280" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="227"/>
-      <c r="C45" s="227"/>
-      <c r="D45" s="227"/>
-      <c r="E45" s="227"/>
-      <c r="F45" s="227"/>
-      <c r="G45" s="227"/>
-      <c r="H45" s="227"/>
-      <c r="I45" s="227"/>
-      <c r="J45" s="227"/>
-      <c r="K45" s="227"/>
-      <c r="L45" s="227"/>
-      <c r="M45" s="227"/>
-      <c r="N45" s="228"/>
+      <c r="B45" s="281"/>
+      <c r="C45" s="281"/>
+      <c r="D45" s="281"/>
+      <c r="E45" s="281"/>
+      <c r="F45" s="281"/>
+      <c r="G45" s="281"/>
+      <c r="H45" s="281"/>
+      <c r="I45" s="281"/>
+      <c r="J45" s="281"/>
+      <c r="K45" s="281"/>
+      <c r="L45" s="281"/>
+      <c r="M45" s="281"/>
+      <c r="N45" s="282"/>
       <c r="O45" s="120"/>
       <c r="P45" s="120"/>
       <c r="Q45" s="120"/>
@@ -5193,22 +5303,22 @@
       <c r="T45" s="120"/>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="303" t="s">
+      <c r="A46" s="194" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="304"/>
-      <c r="C46" s="304"/>
-      <c r="D46" s="304"/>
-      <c r="E46" s="304"/>
-      <c r="F46" s="304"/>
-      <c r="G46" s="304"/>
-      <c r="H46" s="304"/>
-      <c r="I46" s="304"/>
-      <c r="J46" s="304"/>
-      <c r="K46" s="304"/>
-      <c r="L46" s="304"/>
-      <c r="M46" s="304"/>
-      <c r="N46" s="305"/>
+      <c r="B46" s="195"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="195"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="195"/>
+      <c r="G46" s="195"/>
+      <c r="H46" s="195"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="195"/>
+      <c r="K46" s="195"/>
+      <c r="L46" s="195"/>
+      <c r="M46" s="195"/>
+      <c r="N46" s="196"/>
       <c r="O46" s="120"/>
       <c r="P46" s="120"/>
       <c r="Q46" s="120"/>
@@ -5217,20 +5327,20 @@
       <c r="T46" s="120"/>
     </row>
     <row r="47" spans="1:20" s="123" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A47" s="306"/>
-      <c r="B47" s="307"/>
-      <c r="C47" s="307"/>
-      <c r="D47" s="307"/>
-      <c r="E47" s="307"/>
-      <c r="F47" s="307"/>
-      <c r="G47" s="307"/>
-      <c r="H47" s="307"/>
-      <c r="I47" s="307"/>
-      <c r="J47" s="307"/>
-      <c r="K47" s="308"/>
-      <c r="L47" s="308"/>
-      <c r="M47" s="308"/>
-      <c r="N47" s="309"/>
+      <c r="A47" s="197"/>
+      <c r="B47" s="198"/>
+      <c r="C47" s="198"/>
+      <c r="D47" s="198"/>
+      <c r="E47" s="198"/>
+      <c r="F47" s="198"/>
+      <c r="G47" s="198"/>
+      <c r="H47" s="198"/>
+      <c r="I47" s="198"/>
+      <c r="J47" s="198"/>
+      <c r="K47" s="199"/>
+      <c r="L47" s="199"/>
+      <c r="M47" s="199"/>
+      <c r="N47" s="200"/>
       <c r="O47" s="122"/>
       <c r="P47" s="122"/>
       <c r="Q47" s="122"/>
@@ -5239,18 +5349,18 @@
       <c r="T47" s="122"/>
     </row>
     <row r="48" spans="1:20" s="123" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="314" t="s">
+      <c r="A48" s="205" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="315"/>
-      <c r="C48" s="315"/>
-      <c r="D48" s="315"/>
-      <c r="E48" s="315"/>
-      <c r="F48" s="315"/>
-      <c r="G48" s="315"/>
-      <c r="H48" s="315"/>
-      <c r="I48" s="315"/>
-      <c r="J48" s="315"/>
+      <c r="B48" s="206"/>
+      <c r="C48" s="206"/>
+      <c r="D48" s="206"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="206"/>
+      <c r="G48" s="206"/>
+      <c r="H48" s="206"/>
+      <c r="I48" s="206"/>
+      <c r="J48" s="206"/>
       <c r="K48" s="88">
         <v>1</v>
       </c>
@@ -5271,18 +5381,18 @@
       <c r="T48" s="122"/>
     </row>
     <row r="49" spans="1:20" s="123" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="316" t="s">
+      <c r="A49" s="207" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="316"/>
-      <c r="C49" s="316"/>
-      <c r="D49" s="316"/>
-      <c r="E49" s="316"/>
-      <c r="F49" s="316"/>
-      <c r="G49" s="316"/>
-      <c r="H49" s="316"/>
-      <c r="I49" s="316"/>
-      <c r="J49" s="316"/>
+      <c r="B49" s="207"/>
+      <c r="C49" s="207"/>
+      <c r="D49" s="207"/>
+      <c r="E49" s="207"/>
+      <c r="F49" s="207"/>
+      <c r="G49" s="207"/>
+      <c r="H49" s="207"/>
+      <c r="I49" s="207"/>
+      <c r="J49" s="207"/>
       <c r="K49" s="89"/>
       <c r="L49" s="89"/>
       <c r="M49" s="89"/>
@@ -5295,18 +5405,18 @@
       <c r="T49" s="122"/>
     </row>
     <row r="50" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A50" s="316" t="s">
+      <c r="A50" s="207" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="316"/>
-      <c r="C50" s="316"/>
-      <c r="D50" s="316"/>
-      <c r="E50" s="316"/>
-      <c r="F50" s="316"/>
-      <c r="G50" s="316"/>
-      <c r="H50" s="316"/>
-      <c r="I50" s="316"/>
-      <c r="J50" s="316"/>
+      <c r="B50" s="207"/>
+      <c r="C50" s="207"/>
+      <c r="D50" s="207"/>
+      <c r="E50" s="207"/>
+      <c r="F50" s="207"/>
+      <c r="G50" s="207"/>
+      <c r="H50" s="207"/>
+      <c r="I50" s="207"/>
+      <c r="J50" s="207"/>
       <c r="K50" s="89"/>
       <c r="L50" s="89"/>
       <c r="M50" s="89"/>
@@ -5319,18 +5429,18 @@
       <c r="T50" s="120"/>
     </row>
     <row r="51" spans="1:20" ht="15" customHeight="1">
-      <c r="A51" s="302" t="s">
+      <c r="A51" s="193" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="302"/>
-      <c r="C51" s="302"/>
-      <c r="D51" s="302"/>
-      <c r="E51" s="302"/>
-      <c r="F51" s="302"/>
-      <c r="G51" s="302"/>
-      <c r="H51" s="302"/>
-      <c r="I51" s="302"/>
-      <c r="J51" s="302"/>
+      <c r="B51" s="193"/>
+      <c r="C51" s="193"/>
+      <c r="D51" s="193"/>
+      <c r="E51" s="193"/>
+      <c r="F51" s="193"/>
+      <c r="G51" s="193"/>
+      <c r="H51" s="193"/>
+      <c r="I51" s="193"/>
+      <c r="J51" s="193"/>
       <c r="K51" s="88">
         <v>1</v>
       </c>
@@ -5351,54 +5461,54 @@
       <c r="T51" s="120"/>
     </row>
     <row r="52" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A52" s="313" t="s">
+      <c r="A52" s="204" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="313"/>
-      <c r="C52" s="313"/>
-      <c r="D52" s="313"/>
-      <c r="E52" s="313"/>
-      <c r="F52" s="313"/>
-      <c r="G52" s="313"/>
-      <c r="H52" s="313"/>
-      <c r="I52" s="313"/>
-      <c r="J52" s="313"/>
+      <c r="B52" s="204"/>
+      <c r="C52" s="204"/>
+      <c r="D52" s="204"/>
+      <c r="E52" s="204"/>
+      <c r="F52" s="204"/>
+      <c r="G52" s="204"/>
+      <c r="H52" s="204"/>
+      <c r="I52" s="204"/>
+      <c r="J52" s="204"/>
       <c r="K52" s="90"/>
       <c r="L52" s="90"/>
       <c r="M52" s="90"/>
       <c r="N52" s="90"/>
     </row>
     <row r="53" spans="1:20" s="120" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="313" t="s">
+      <c r="A53" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="313"/>
-      <c r="C53" s="313"/>
-      <c r="D53" s="313"/>
-      <c r="E53" s="313"/>
-      <c r="F53" s="313"/>
-      <c r="G53" s="313"/>
-      <c r="H53" s="313"/>
-      <c r="I53" s="313"/>
-      <c r="J53" s="313"/>
+      <c r="B53" s="204"/>
+      <c r="C53" s="204"/>
+      <c r="D53" s="204"/>
+      <c r="E53" s="204"/>
+      <c r="F53" s="204"/>
+      <c r="G53" s="204"/>
+      <c r="H53" s="204"/>
+      <c r="I53" s="204"/>
+      <c r="J53" s="204"/>
       <c r="K53" s="90"/>
       <c r="L53" s="90"/>
       <c r="M53" s="90"/>
       <c r="N53" s="90"/>
     </row>
     <row r="54" spans="1:20" ht="15" customHeight="1">
-      <c r="A54" s="302" t="s">
+      <c r="A54" s="193" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="302"/>
-      <c r="C54" s="302"/>
-      <c r="D54" s="302"/>
-      <c r="E54" s="302"/>
-      <c r="F54" s="302"/>
-      <c r="G54" s="302"/>
-      <c r="H54" s="302"/>
-      <c r="I54" s="302"/>
-      <c r="J54" s="302"/>
+      <c r="B54" s="193"/>
+      <c r="C54" s="193"/>
+      <c r="D54" s="193"/>
+      <c r="E54" s="193"/>
+      <c r="F54" s="193"/>
+      <c r="G54" s="193"/>
+      <c r="H54" s="193"/>
+      <c r="I54" s="193"/>
+      <c r="J54" s="193"/>
       <c r="K54" s="88">
         <v>1</v>
       </c>
@@ -5419,62 +5529,62 @@
       <c r="T54" s="120"/>
     </row>
     <row r="55" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A55" s="313" t="s">
+      <c r="A55" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="313"/>
-      <c r="C55" s="313"/>
-      <c r="D55" s="313"/>
-      <c r="E55" s="313"/>
-      <c r="F55" s="313"/>
-      <c r="G55" s="313"/>
-      <c r="H55" s="313"/>
-      <c r="I55" s="313"/>
-      <c r="J55" s="313"/>
+      <c r="B55" s="204"/>
+      <c r="C55" s="204"/>
+      <c r="D55" s="204"/>
+      <c r="E55" s="204"/>
+      <c r="F55" s="204"/>
+      <c r="G55" s="204"/>
+      <c r="H55" s="204"/>
+      <c r="I55" s="204"/>
+      <c r="J55" s="204"/>
       <c r="K55" s="90"/>
       <c r="L55" s="90"/>
       <c r="M55" s="90"/>
       <c r="N55" s="90"/>
     </row>
     <row r="56" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A56" s="239" t="s">
+      <c r="A56" s="267" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="239"/>
-      <c r="C56" s="239"/>
-      <c r="D56" s="239"/>
-      <c r="E56" s="239"/>
-      <c r="F56" s="239"/>
-      <c r="G56" s="239"/>
-      <c r="H56" s="239"/>
-      <c r="I56" s="239"/>
-      <c r="J56" s="239"/>
+      <c r="B56" s="267"/>
+      <c r="C56" s="267"/>
+      <c r="D56" s="267"/>
+      <c r="E56" s="267"/>
+      <c r="F56" s="267"/>
+      <c r="G56" s="267"/>
+      <c r="H56" s="267"/>
+      <c r="I56" s="267"/>
+      <c r="J56" s="267"/>
       <c r="K56" s="91"/>
       <c r="L56" s="91"/>
       <c r="M56" s="91"/>
       <c r="N56" s="91"/>
     </row>
     <row r="57" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A57" s="240" t="s">
+      <c r="A57" s="268" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="241"/>
-      <c r="C57" s="241"/>
-      <c r="D57" s="241"/>
-      <c r="E57" s="241"/>
-      <c r="F57" s="242"/>
-      <c r="G57" s="246" t="s">
+      <c r="B57" s="269"/>
+      <c r="C57" s="269"/>
+      <c r="D57" s="269"/>
+      <c r="E57" s="269"/>
+      <c r="F57" s="270"/>
+      <c r="G57" s="274" t="s">
         <v>60</v>
       </c>
-      <c r="H57" s="247"/>
-      <c r="I57" s="247"/>
-      <c r="J57" s="248"/>
-      <c r="K57" s="310" t="s">
+      <c r="H57" s="275"/>
+      <c r="I57" s="275"/>
+      <c r="J57" s="276"/>
+      <c r="K57" s="201" t="s">
         <v>61</v>
       </c>
-      <c r="L57" s="311"/>
-      <c r="M57" s="311"/>
-      <c r="N57" s="312"/>
+      <c r="L57" s="202"/>
+      <c r="M57" s="202"/>
+      <c r="N57" s="203"/>
       <c r="O57" s="120"/>
       <c r="P57" s="120"/>
       <c r="Q57" s="120"/>
@@ -5483,12 +5593,12 @@
       <c r="T57" s="120"/>
     </row>
     <row r="58" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A58" s="243"/>
-      <c r="B58" s="244"/>
-      <c r="C58" s="244"/>
-      <c r="D58" s="244"/>
-      <c r="E58" s="244"/>
-      <c r="F58" s="245"/>
+      <c r="A58" s="271"/>
+      <c r="B58" s="272"/>
+      <c r="C58" s="272"/>
+      <c r="D58" s="272"/>
+      <c r="E58" s="272"/>
+      <c r="F58" s="273"/>
       <c r="G58" s="88">
         <v>1</v>
       </c>
@@ -5521,14 +5631,14 @@
       <c r="T58" s="120"/>
     </row>
     <row r="59" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A59" s="236" t="s">
+      <c r="A59" s="264" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="237"/>
-      <c r="C59" s="237"/>
-      <c r="D59" s="237"/>
-      <c r="E59" s="237"/>
-      <c r="F59" s="238"/>
+      <c r="B59" s="265"/>
+      <c r="C59" s="265"/>
+      <c r="D59" s="265"/>
+      <c r="E59" s="265"/>
+      <c r="F59" s="266"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
       <c r="I59" s="92"/>
@@ -5539,14 +5649,14 @@
       <c r="N59" s="90"/>
     </row>
     <row r="60" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A60" s="236" t="s">
+      <c r="A60" s="264" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="237"/>
-      <c r="C60" s="237"/>
-      <c r="D60" s="237"/>
-      <c r="E60" s="237"/>
-      <c r="F60" s="238"/>
+      <c r="B60" s="265"/>
+      <c r="C60" s="265"/>
+      <c r="D60" s="265"/>
+      <c r="E60" s="265"/>
+      <c r="F60" s="266"/>
       <c r="G60" s="92"/>
       <c r="H60" s="92"/>
       <c r="I60" s="92"/>
@@ -5557,18 +5667,18 @@
       <c r="N60" s="90"/>
     </row>
     <row r="61" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A61" s="249" t="s">
+      <c r="A61" s="277" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="250"/>
-      <c r="C61" s="250"/>
-      <c r="D61" s="250"/>
-      <c r="E61" s="250"/>
-      <c r="F61" s="250"/>
-      <c r="G61" s="250"/>
-      <c r="H61" s="250"/>
-      <c r="I61" s="250"/>
-      <c r="J61" s="251"/>
+      <c r="B61" s="278"/>
+      <c r="C61" s="278"/>
+      <c r="D61" s="278"/>
+      <c r="E61" s="278"/>
+      <c r="F61" s="278"/>
+      <c r="G61" s="278"/>
+      <c r="H61" s="278"/>
+      <c r="I61" s="278"/>
+      <c r="J61" s="279"/>
       <c r="K61" s="88">
         <v>1</v>
       </c>
@@ -5589,54 +5699,54 @@
       <c r="T61" s="120"/>
     </row>
     <row r="62" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A62" s="236" t="s">
+      <c r="A62" s="264" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="237"/>
-      <c r="C62" s="237"/>
-      <c r="D62" s="237"/>
-      <c r="E62" s="237"/>
-      <c r="F62" s="237"/>
-      <c r="G62" s="237"/>
-      <c r="H62" s="237"/>
-      <c r="I62" s="237"/>
-      <c r="J62" s="238"/>
+      <c r="B62" s="265"/>
+      <c r="C62" s="265"/>
+      <c r="D62" s="265"/>
+      <c r="E62" s="265"/>
+      <c r="F62" s="265"/>
+      <c r="G62" s="265"/>
+      <c r="H62" s="265"/>
+      <c r="I62" s="265"/>
+      <c r="J62" s="266"/>
       <c r="K62" s="93"/>
       <c r="L62" s="90"/>
       <c r="M62" s="90"/>
       <c r="N62" s="90"/>
     </row>
     <row r="63" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A63" s="236" t="s">
+      <c r="A63" s="264" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="237"/>
-      <c r="C63" s="237"/>
-      <c r="D63" s="237"/>
-      <c r="E63" s="237"/>
-      <c r="F63" s="237"/>
-      <c r="G63" s="237"/>
-      <c r="H63" s="237"/>
-      <c r="I63" s="237"/>
-      <c r="J63" s="238"/>
+      <c r="B63" s="265"/>
+      <c r="C63" s="265"/>
+      <c r="D63" s="265"/>
+      <c r="E63" s="265"/>
+      <c r="F63" s="265"/>
+      <c r="G63" s="265"/>
+      <c r="H63" s="265"/>
+      <c r="I63" s="265"/>
+      <c r="J63" s="266"/>
       <c r="K63" s="93"/>
       <c r="L63" s="90"/>
       <c r="M63" s="90"/>
       <c r="N63" s="90"/>
     </row>
     <row r="64" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A64" s="252" t="s">
+      <c r="A64" s="255" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="253"/>
-      <c r="C64" s="253"/>
-      <c r="D64" s="253"/>
-      <c r="E64" s="253"/>
-      <c r="F64" s="253"/>
-      <c r="G64" s="253"/>
-      <c r="H64" s="253"/>
-      <c r="I64" s="253"/>
-      <c r="J64" s="254"/>
+      <c r="B64" s="256"/>
+      <c r="C64" s="256"/>
+      <c r="D64" s="256"/>
+      <c r="E64" s="256"/>
+      <c r="F64" s="256"/>
+      <c r="G64" s="256"/>
+      <c r="H64" s="256"/>
+      <c r="I64" s="256"/>
+      <c r="J64" s="257"/>
       <c r="K64" s="94">
         <v>1</v>
       </c>
@@ -5657,18 +5767,18 @@
       <c r="T64" s="120"/>
     </row>
     <row r="65" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A65" s="236" t="s">
+      <c r="A65" s="264" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="237"/>
-      <c r="C65" s="237"/>
-      <c r="D65" s="237"/>
-      <c r="E65" s="237"/>
-      <c r="F65" s="237"/>
-      <c r="G65" s="237"/>
-      <c r="H65" s="237"/>
-      <c r="I65" s="237"/>
-      <c r="J65" s="238"/>
+      <c r="B65" s="265"/>
+      <c r="C65" s="265"/>
+      <c r="D65" s="265"/>
+      <c r="E65" s="265"/>
+      <c r="F65" s="265"/>
+      <c r="G65" s="265"/>
+      <c r="H65" s="265"/>
+      <c r="I65" s="265"/>
+      <c r="J65" s="266"/>
       <c r="K65" s="90"/>
       <c r="L65" s="90"/>
       <c r="M65" s="90"/>
@@ -5681,18 +5791,18 @@
       <c r="T65" s="120"/>
     </row>
     <row r="66" spans="1:84" ht="25.5" customHeight="1">
-      <c r="A66" s="255" t="s">
+      <c r="A66" s="227" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="256"/>
-      <c r="C66" s="256"/>
-      <c r="D66" s="256"/>
-      <c r="E66" s="256"/>
-      <c r="F66" s="256"/>
-      <c r="G66" s="256"/>
-      <c r="H66" s="256"/>
-      <c r="I66" s="256"/>
-      <c r="J66" s="257"/>
+      <c r="B66" s="228"/>
+      <c r="C66" s="228"/>
+      <c r="D66" s="228"/>
+      <c r="E66" s="228"/>
+      <c r="F66" s="228"/>
+      <c r="G66" s="228"/>
+      <c r="H66" s="228"/>
+      <c r="I66" s="228"/>
+      <c r="J66" s="229"/>
       <c r="K66" s="90"/>
       <c r="L66" s="90"/>
       <c r="M66" s="90"/>
@@ -5705,18 +5815,18 @@
       <c r="T66" s="120"/>
     </row>
     <row r="67" spans="1:84" ht="15" customHeight="1">
-      <c r="A67" s="252" t="s">
+      <c r="A67" s="255" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="253"/>
-      <c r="C67" s="253"/>
-      <c r="D67" s="253"/>
-      <c r="E67" s="253"/>
-      <c r="F67" s="253"/>
-      <c r="G67" s="253"/>
-      <c r="H67" s="253"/>
-      <c r="I67" s="253"/>
-      <c r="J67" s="254"/>
+      <c r="B67" s="256"/>
+      <c r="C67" s="256"/>
+      <c r="D67" s="256"/>
+      <c r="E67" s="256"/>
+      <c r="F67" s="256"/>
+      <c r="G67" s="256"/>
+      <c r="H67" s="256"/>
+      <c r="I67" s="256"/>
+      <c r="J67" s="257"/>
       <c r="K67" s="88">
         <v>1</v>
       </c>
@@ -5737,18 +5847,18 @@
       <c r="T67" s="120"/>
     </row>
     <row r="68" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A68" s="255" t="s">
+      <c r="A68" s="227" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="256"/>
-      <c r="C68" s="256"/>
-      <c r="D68" s="256"/>
-      <c r="E68" s="256"/>
-      <c r="F68" s="256"/>
-      <c r="G68" s="256"/>
-      <c r="H68" s="256"/>
-      <c r="I68" s="256"/>
-      <c r="J68" s="257"/>
+      <c r="B68" s="228"/>
+      <c r="C68" s="228"/>
+      <c r="D68" s="228"/>
+      <c r="E68" s="228"/>
+      <c r="F68" s="228"/>
+      <c r="G68" s="228"/>
+      <c r="H68" s="228"/>
+      <c r="I68" s="228"/>
+      <c r="J68" s="229"/>
       <c r="K68" s="90"/>
       <c r="L68" s="90"/>
       <c r="M68" s="90"/>
@@ -5831,18 +5941,18 @@
       <c r="T71" s="120"/>
     </row>
     <row r="72" spans="1:84" ht="25.5" customHeight="1">
-      <c r="A72" s="255" t="s">
+      <c r="A72" s="227" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="256"/>
-      <c r="C72" s="256"/>
-      <c r="D72" s="256"/>
-      <c r="E72" s="256"/>
-      <c r="F72" s="256"/>
-      <c r="G72" s="256"/>
-      <c r="H72" s="256"/>
-      <c r="I72" s="256"/>
-      <c r="J72" s="257"/>
+      <c r="B72" s="228"/>
+      <c r="C72" s="228"/>
+      <c r="D72" s="228"/>
+      <c r="E72" s="228"/>
+      <c r="F72" s="228"/>
+      <c r="G72" s="228"/>
+      <c r="H72" s="228"/>
+      <c r="I72" s="228"/>
+      <c r="J72" s="229"/>
       <c r="K72" s="101" t="s">
         <v>96</v>
       </c>
@@ -5859,18 +5969,18 @@
       <c r="T72" s="120"/>
     </row>
     <row r="73" spans="1:84" ht="23.25" customHeight="1">
-      <c r="A73" s="255" t="s">
+      <c r="A73" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="256"/>
-      <c r="C73" s="256"/>
-      <c r="D73" s="256"/>
-      <c r="E73" s="256"/>
-      <c r="F73" s="256"/>
-      <c r="G73" s="256"/>
-      <c r="H73" s="256"/>
-      <c r="I73" s="256"/>
-      <c r="J73" s="257"/>
+      <c r="B73" s="228"/>
+      <c r="C73" s="228"/>
+      <c r="D73" s="228"/>
+      <c r="E73" s="228"/>
+      <c r="F73" s="228"/>
+      <c r="G73" s="228"/>
+      <c r="H73" s="228"/>
+      <c r="I73" s="228"/>
+      <c r="J73" s="229"/>
       <c r="K73" s="101" t="s">
         <v>96</v>
       </c>
@@ -5909,18 +6019,18 @@
       <c r="T74" s="120"/>
     </row>
     <row r="75" spans="1:84" ht="15" customHeight="1">
-      <c r="A75" s="277" t="s">
+      <c r="A75" s="230" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="278"/>
-      <c r="C75" s="278"/>
-      <c r="D75" s="278"/>
-      <c r="E75" s="278"/>
-      <c r="F75" s="278"/>
-      <c r="G75" s="278"/>
-      <c r="H75" s="278"/>
-      <c r="I75" s="278"/>
-      <c r="J75" s="279"/>
+      <c r="B75" s="231"/>
+      <c r="C75" s="231"/>
+      <c r="D75" s="231"/>
+      <c r="E75" s="231"/>
+      <c r="F75" s="231"/>
+      <c r="G75" s="231"/>
+      <c r="H75" s="231"/>
+      <c r="I75" s="231"/>
+      <c r="J75" s="232"/>
       <c r="K75" s="88">
         <v>1</v>
       </c>
@@ -6005,18 +6115,18 @@
       <c r="CF75" s="120"/>
     </row>
     <row r="76" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A76" s="274" t="s">
+      <c r="A76" s="249" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="275"/>
-      <c r="C76" s="275"/>
-      <c r="D76" s="275"/>
-      <c r="E76" s="275"/>
-      <c r="F76" s="275"/>
-      <c r="G76" s="275"/>
-      <c r="H76" s="275"/>
-      <c r="I76" s="275"/>
-      <c r="J76" s="276"/>
+      <c r="B76" s="250"/>
+      <c r="C76" s="250"/>
+      <c r="D76" s="250"/>
+      <c r="E76" s="250"/>
+      <c r="F76" s="250"/>
+      <c r="G76" s="250"/>
+      <c r="H76" s="250"/>
+      <c r="I76" s="250"/>
+      <c r="J76" s="251"/>
       <c r="K76" s="109"/>
       <c r="L76" s="109"/>
       <c r="M76" s="109"/>
@@ -6093,18 +6203,18 @@
       <c r="CF76" s="120"/>
     </row>
     <row r="77" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A77" s="274" t="s">
+      <c r="A77" s="249" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="275"/>
-      <c r="C77" s="275"/>
-      <c r="D77" s="275"/>
-      <c r="E77" s="275"/>
-      <c r="F77" s="275"/>
-      <c r="G77" s="275"/>
-      <c r="H77" s="275"/>
-      <c r="I77" s="275"/>
-      <c r="J77" s="276"/>
+      <c r="B77" s="250"/>
+      <c r="C77" s="250"/>
+      <c r="D77" s="250"/>
+      <c r="E77" s="250"/>
+      <c r="F77" s="250"/>
+      <c r="G77" s="250"/>
+      <c r="H77" s="250"/>
+      <c r="I77" s="250"/>
+      <c r="J77" s="251"/>
       <c r="K77" s="109"/>
       <c r="L77" s="109"/>
       <c r="M77" s="109"/>
@@ -6181,18 +6291,18 @@
       <c r="CF77" s="120"/>
     </row>
     <row r="78" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A78" s="274" t="s">
+      <c r="A78" s="249" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="275"/>
-      <c r="C78" s="275"/>
-      <c r="D78" s="275"/>
-      <c r="E78" s="275"/>
-      <c r="F78" s="275"/>
-      <c r="G78" s="275"/>
-      <c r="H78" s="275"/>
-      <c r="I78" s="275"/>
-      <c r="J78" s="276"/>
+      <c r="B78" s="250"/>
+      <c r="C78" s="250"/>
+      <c r="D78" s="250"/>
+      <c r="E78" s="250"/>
+      <c r="F78" s="250"/>
+      <c r="G78" s="250"/>
+      <c r="H78" s="250"/>
+      <c r="I78" s="250"/>
+      <c r="J78" s="251"/>
       <c r="K78" s="109"/>
       <c r="L78" s="109"/>
       <c r="M78" s="109"/>
@@ -6269,18 +6379,18 @@
       <c r="CF78" s="120"/>
     </row>
     <row r="79" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A79" s="274" t="s">
+      <c r="A79" s="249" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="275"/>
-      <c r="C79" s="275"/>
-      <c r="D79" s="275"/>
-      <c r="E79" s="275"/>
-      <c r="F79" s="275"/>
-      <c r="G79" s="275"/>
-      <c r="H79" s="275"/>
-      <c r="I79" s="275"/>
-      <c r="J79" s="276"/>
+      <c r="B79" s="250"/>
+      <c r="C79" s="250"/>
+      <c r="D79" s="250"/>
+      <c r="E79" s="250"/>
+      <c r="F79" s="250"/>
+      <c r="G79" s="250"/>
+      <c r="H79" s="250"/>
+      <c r="I79" s="250"/>
+      <c r="J79" s="251"/>
       <c r="K79" s="109"/>
       <c r="L79" s="109"/>
       <c r="M79" s="109"/>
@@ -6357,18 +6467,18 @@
       <c r="CF79" s="120"/>
     </row>
     <row r="80" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A80" s="274" t="s">
+      <c r="A80" s="249" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="275"/>
-      <c r="C80" s="275"/>
-      <c r="D80" s="275"/>
-      <c r="E80" s="275"/>
-      <c r="F80" s="275"/>
-      <c r="G80" s="275"/>
-      <c r="H80" s="275"/>
-      <c r="I80" s="275"/>
-      <c r="J80" s="276"/>
+      <c r="B80" s="250"/>
+      <c r="C80" s="250"/>
+      <c r="D80" s="250"/>
+      <c r="E80" s="250"/>
+      <c r="F80" s="250"/>
+      <c r="G80" s="250"/>
+      <c r="H80" s="250"/>
+      <c r="I80" s="250"/>
+      <c r="J80" s="251"/>
       <c r="K80" s="109"/>
       <c r="L80" s="109"/>
       <c r="M80" s="109"/>
@@ -6445,18 +6555,18 @@
       <c r="CF80" s="120"/>
     </row>
     <row r="81" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A81" s="265" t="s">
+      <c r="A81" s="240" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="266"/>
-      <c r="C81" s="266"/>
-      <c r="D81" s="266"/>
-      <c r="E81" s="266"/>
-      <c r="F81" s="266"/>
-      <c r="G81" s="266"/>
-      <c r="H81" s="266"/>
-      <c r="I81" s="266"/>
-      <c r="J81" s="267"/>
+      <c r="B81" s="241"/>
+      <c r="C81" s="241"/>
+      <c r="D81" s="241"/>
+      <c r="E81" s="241"/>
+      <c r="F81" s="241"/>
+      <c r="G81" s="241"/>
+      <c r="H81" s="241"/>
+      <c r="I81" s="241"/>
+      <c r="J81" s="242"/>
       <c r="K81" s="88">
         <v>1</v>
       </c>
@@ -6541,16 +6651,16 @@
       <c r="CF81" s="120"/>
     </row>
     <row r="82" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A82" s="268"/>
-      <c r="B82" s="269"/>
-      <c r="C82" s="269"/>
-      <c r="D82" s="269"/>
-      <c r="E82" s="269"/>
-      <c r="F82" s="269"/>
-      <c r="G82" s="269"/>
-      <c r="H82" s="269"/>
-      <c r="I82" s="269"/>
-      <c r="J82" s="270"/>
+      <c r="A82" s="243"/>
+      <c r="B82" s="244"/>
+      <c r="C82" s="244"/>
+      <c r="D82" s="244"/>
+      <c r="E82" s="244"/>
+      <c r="F82" s="244"/>
+      <c r="G82" s="244"/>
+      <c r="H82" s="244"/>
+      <c r="I82" s="244"/>
+      <c r="J82" s="245"/>
       <c r="K82" s="110"/>
       <c r="L82" s="110"/>
       <c r="M82" s="110"/>
@@ -6627,22 +6737,22 @@
       <c r="CF82" s="120"/>
     </row>
     <row r="83" spans="1:84" ht="15" customHeight="1">
-      <c r="A83" s="271" t="s">
+      <c r="A83" s="246" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="272"/>
-      <c r="C83" s="272"/>
-      <c r="D83" s="272"/>
-      <c r="E83" s="272"/>
-      <c r="F83" s="272"/>
-      <c r="G83" s="272"/>
-      <c r="H83" s="272"/>
-      <c r="I83" s="272"/>
-      <c r="J83" s="272"/>
-      <c r="K83" s="272"/>
-      <c r="L83" s="272"/>
-      <c r="M83" s="272"/>
-      <c r="N83" s="273"/>
+      <c r="B83" s="247"/>
+      <c r="C83" s="247"/>
+      <c r="D83" s="247"/>
+      <c r="E83" s="247"/>
+      <c r="F83" s="247"/>
+      <c r="G83" s="247"/>
+      <c r="H83" s="247"/>
+      <c r="I83" s="247"/>
+      <c r="J83" s="247"/>
+      <c r="K83" s="247"/>
+      <c r="L83" s="247"/>
+      <c r="M83" s="247"/>
+      <c r="N83" s="248"/>
       <c r="O83" s="120"/>
       <c r="P83" s="120"/>
       <c r="Q83" s="120"/>
@@ -6715,20 +6825,20 @@
       <c r="CF83" s="120"/>
     </row>
     <row r="84" spans="1:84">
-      <c r="A84" s="290"/>
-      <c r="B84" s="291"/>
-      <c r="C84" s="291"/>
-      <c r="D84" s="291"/>
-      <c r="E84" s="291"/>
-      <c r="F84" s="291"/>
-      <c r="G84" s="291"/>
-      <c r="H84" s="291"/>
-      <c r="I84" s="291"/>
-      <c r="J84" s="291"/>
-      <c r="K84" s="291"/>
-      <c r="L84" s="291"/>
-      <c r="M84" s="291"/>
-      <c r="N84" s="292"/>
+      <c r="A84" s="218"/>
+      <c r="B84" s="219"/>
+      <c r="C84" s="219"/>
+      <c r="D84" s="219"/>
+      <c r="E84" s="219"/>
+      <c r="F84" s="219"/>
+      <c r="G84" s="219"/>
+      <c r="H84" s="219"/>
+      <c r="I84" s="219"/>
+      <c r="J84" s="219"/>
+      <c r="K84" s="219"/>
+      <c r="L84" s="219"/>
+      <c r="M84" s="219"/>
+      <c r="N84" s="220"/>
       <c r="O84" s="120"/>
       <c r="P84" s="120"/>
       <c r="Q84" s="120"/>
@@ -6801,20 +6911,20 @@
       <c r="CF84" s="120"/>
     </row>
     <row r="85" spans="1:84" ht="16.5" customHeight="1">
-      <c r="A85" s="293"/>
-      <c r="B85" s="294"/>
-      <c r="C85" s="294"/>
-      <c r="D85" s="294"/>
-      <c r="E85" s="294"/>
-      <c r="F85" s="294"/>
-      <c r="G85" s="294"/>
-      <c r="H85" s="294"/>
-      <c r="I85" s="294"/>
-      <c r="J85" s="294"/>
-      <c r="K85" s="294"/>
-      <c r="L85" s="294"/>
-      <c r="M85" s="294"/>
-      <c r="N85" s="295"/>
+      <c r="A85" s="221"/>
+      <c r="B85" s="222"/>
+      <c r="C85" s="222"/>
+      <c r="D85" s="222"/>
+      <c r="E85" s="222"/>
+      <c r="F85" s="222"/>
+      <c r="G85" s="222"/>
+      <c r="H85" s="222"/>
+      <c r="I85" s="222"/>
+      <c r="J85" s="222"/>
+      <c r="K85" s="222"/>
+      <c r="L85" s="222"/>
+      <c r="M85" s="222"/>
+      <c r="N85" s="223"/>
       <c r="O85" s="120"/>
       <c r="P85" s="120"/>
       <c r="Q85" s="120"/>
@@ -6823,20 +6933,20 @@
       <c r="T85" s="120"/>
     </row>
     <row r="86" spans="1:84" ht="6.75" customHeight="1">
-      <c r="A86" s="293"/>
-      <c r="B86" s="294"/>
-      <c r="C86" s="294"/>
-      <c r="D86" s="294"/>
-      <c r="E86" s="294"/>
-      <c r="F86" s="294"/>
-      <c r="G86" s="294"/>
-      <c r="H86" s="294"/>
-      <c r="I86" s="294"/>
-      <c r="J86" s="294"/>
-      <c r="K86" s="294"/>
-      <c r="L86" s="294"/>
-      <c r="M86" s="294"/>
-      <c r="N86" s="295"/>
+      <c r="A86" s="221"/>
+      <c r="B86" s="222"/>
+      <c r="C86" s="222"/>
+      <c r="D86" s="222"/>
+      <c r="E86" s="222"/>
+      <c r="F86" s="222"/>
+      <c r="G86" s="222"/>
+      <c r="H86" s="222"/>
+      <c r="I86" s="222"/>
+      <c r="J86" s="222"/>
+      <c r="K86" s="222"/>
+      <c r="L86" s="222"/>
+      <c r="M86" s="222"/>
+      <c r="N86" s="223"/>
       <c r="O86" s="120"/>
       <c r="P86" s="120"/>
       <c r="Q86" s="120"/>
@@ -6845,20 +6955,20 @@
       <c r="T86" s="120"/>
     </row>
     <row r="87" spans="1:84" ht="15" customHeight="1">
-      <c r="A87" s="293"/>
-      <c r="B87" s="294"/>
-      <c r="C87" s="294"/>
-      <c r="D87" s="294"/>
-      <c r="E87" s="294"/>
-      <c r="F87" s="294"/>
-      <c r="G87" s="294"/>
-      <c r="H87" s="294"/>
-      <c r="I87" s="294"/>
-      <c r="J87" s="294"/>
-      <c r="K87" s="294"/>
-      <c r="L87" s="294"/>
-      <c r="M87" s="294"/>
-      <c r="N87" s="295"/>
+      <c r="A87" s="221"/>
+      <c r="B87" s="222"/>
+      <c r="C87" s="222"/>
+      <c r="D87" s="222"/>
+      <c r="E87" s="222"/>
+      <c r="F87" s="222"/>
+      <c r="G87" s="222"/>
+      <c r="H87" s="222"/>
+      <c r="I87" s="222"/>
+      <c r="J87" s="222"/>
+      <c r="K87" s="222"/>
+      <c r="L87" s="222"/>
+      <c r="M87" s="222"/>
+      <c r="N87" s="223"/>
       <c r="O87" s="120"/>
       <c r="P87" s="120"/>
       <c r="Q87" s="120"/>
@@ -6867,20 +6977,20 @@
       <c r="T87" s="120"/>
     </row>
     <row r="88" spans="1:84">
-      <c r="A88" s="293"/>
-      <c r="B88" s="294"/>
-      <c r="C88" s="294"/>
-      <c r="D88" s="294"/>
-      <c r="E88" s="294"/>
-      <c r="F88" s="294"/>
-      <c r="G88" s="294"/>
-      <c r="H88" s="294"/>
-      <c r="I88" s="294"/>
-      <c r="J88" s="294"/>
-      <c r="K88" s="294"/>
-      <c r="L88" s="294"/>
-      <c r="M88" s="294"/>
-      <c r="N88" s="295"/>
+      <c r="A88" s="221"/>
+      <c r="B88" s="222"/>
+      <c r="C88" s="222"/>
+      <c r="D88" s="222"/>
+      <c r="E88" s="222"/>
+      <c r="F88" s="222"/>
+      <c r="G88" s="222"/>
+      <c r="H88" s="222"/>
+      <c r="I88" s="222"/>
+      <c r="J88" s="222"/>
+      <c r="K88" s="222"/>
+      <c r="L88" s="222"/>
+      <c r="M88" s="222"/>
+      <c r="N88" s="223"/>
       <c r="O88" s="120"/>
       <c r="P88" s="120"/>
       <c r="Q88" s="120"/>
@@ -6889,20 +6999,20 @@
       <c r="T88" s="120"/>
     </row>
     <row r="89" spans="1:84">
-      <c r="A89" s="296"/>
-      <c r="B89" s="297"/>
-      <c r="C89" s="297"/>
-      <c r="D89" s="297"/>
-      <c r="E89" s="297"/>
-      <c r="F89" s="297"/>
-      <c r="G89" s="297"/>
-      <c r="H89" s="297"/>
-      <c r="I89" s="297"/>
-      <c r="J89" s="297"/>
-      <c r="K89" s="297"/>
-      <c r="L89" s="297"/>
-      <c r="M89" s="297"/>
-      <c r="N89" s="298"/>
+      <c r="A89" s="224"/>
+      <c r="B89" s="225"/>
+      <c r="C89" s="225"/>
+      <c r="D89" s="225"/>
+      <c r="E89" s="225"/>
+      <c r="F89" s="225"/>
+      <c r="G89" s="225"/>
+      <c r="H89" s="225"/>
+      <c r="I89" s="225"/>
+      <c r="J89" s="225"/>
+      <c r="K89" s="225"/>
+      <c r="L89" s="225"/>
+      <c r="M89" s="225"/>
+      <c r="N89" s="226"/>
       <c r="O89" s="120"/>
       <c r="P89" s="120"/>
       <c r="Q89" s="120"/>
@@ -6911,22 +7021,22 @@
       <c r="T89" s="120"/>
     </row>
     <row r="90" spans="1:84">
-      <c r="A90" s="277" t="s">
+      <c r="A90" s="230" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="278"/>
-      <c r="C90" s="278"/>
-      <c r="D90" s="279"/>
-      <c r="E90" s="280"/>
-      <c r="F90" s="281"/>
-      <c r="G90" s="281"/>
-      <c r="H90" s="281"/>
-      <c r="I90" s="281"/>
-      <c r="J90" s="281"/>
-      <c r="K90" s="281"/>
-      <c r="L90" s="281"/>
-      <c r="M90" s="281"/>
-      <c r="N90" s="282"/>
+      <c r="B90" s="231"/>
+      <c r="C90" s="231"/>
+      <c r="D90" s="232"/>
+      <c r="E90" s="252"/>
+      <c r="F90" s="253"/>
+      <c r="G90" s="253"/>
+      <c r="H90" s="253"/>
+      <c r="I90" s="253"/>
+      <c r="J90" s="253"/>
+      <c r="K90" s="253"/>
+      <c r="L90" s="253"/>
+      <c r="M90" s="253"/>
+      <c r="N90" s="254"/>
       <c r="O90" s="120"/>
       <c r="P90" s="120"/>
       <c r="Q90" s="120"/>
@@ -6957,22 +7067,22 @@
       <c r="T91" s="120"/>
     </row>
     <row r="92" spans="1:84" ht="15">
-      <c r="A92" s="264" t="s">
+      <c r="A92" s="239" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="264"/>
-      <c r="C92" s="264"/>
-      <c r="D92" s="264"/>
-      <c r="E92" s="264"/>
-      <c r="F92" s="264"/>
-      <c r="G92" s="264"/>
-      <c r="H92" s="264"/>
-      <c r="I92" s="264"/>
-      <c r="J92" s="264"/>
-      <c r="K92" s="264"/>
-      <c r="L92" s="264"/>
-      <c r="M92" s="264"/>
-      <c r="N92" s="264"/>
+      <c r="B92" s="239"/>
+      <c r="C92" s="239"/>
+      <c r="D92" s="239"/>
+      <c r="E92" s="239"/>
+      <c r="F92" s="239"/>
+      <c r="G92" s="239"/>
+      <c r="H92" s="239"/>
+      <c r="I92" s="239"/>
+      <c r="J92" s="239"/>
+      <c r="K92" s="239"/>
+      <c r="L92" s="239"/>
+      <c r="M92" s="239"/>
+      <c r="N92" s="239"/>
       <c r="O92" s="120"/>
       <c r="P92" s="120"/>
       <c r="Q92" s="120"/>
@@ -7190,16 +7300,59 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A46:N47"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:K21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="F27:J28"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:F58"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A70:N70"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A92:N92"/>
+    <mergeCell ref="A81:J82"/>
+    <mergeCell ref="A83:N83"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="E90:N90"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:N10"/>
     <mergeCell ref="A13:N13"/>
@@ -7216,59 +7369,16 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A92:N92"/>
-    <mergeCell ref="A81:J82"/>
-    <mergeCell ref="A83:N83"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="E90:N90"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A70:N70"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A57:F58"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:K21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="F27:J28"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A46:N47"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.41" right="0.38" top="0.28000000000000003" bottom="0.18" header="0" footer="0"/>

--- a/plantillas/lista.xlsx
+++ b/plantillas/lista.xlsx
@@ -593,9 +593,6 @@
     <t>Apellidos, Nombre</t>
   </si>
   <si>
-    <t>Obserbaciones</t>
-  </si>
-  <si>
     <t>Sesión 2</t>
   </si>
   <si>
@@ -609,6 +606,9 @@
   </si>
   <si>
     <t>Fecha/Hora</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
   </si>
 </sst>
 </file>
@@ -2453,6 +2453,62 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="93" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="90" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2507,59 +2563,356 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="83" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="93" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="87" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="94" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="80" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,359 +2957,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="66" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="80" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="73" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="77" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="79" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="74" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="72" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="73" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="62" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="63" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="64" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="69" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="70" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="71" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3403,7 +3403,7 @@
   <dimension ref="B1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="K26" sqref="K26:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -3430,18 +3430,18 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="2:17" ht="33" customHeight="1">
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
       <c r="L3" s="150"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -3456,17 +3456,17 @@
       <c r="B5" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="182" t="s">
+      <c r="C5" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="184"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="167"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -3474,18 +3474,18 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="186"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="169"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -3493,18 +3493,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="2:17" ht="12.75" customHeight="1">
-      <c r="B7" s="180"/>
-      <c r="C7" s="187" t="s">
+      <c r="B7" s="163"/>
+      <c r="C7" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="189"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="172"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -3512,7 +3512,7 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="B8" s="180"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -3529,18 +3529,18 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="2:17" ht="13.5" thickBot="1">
-      <c r="B9" s="181"/>
-      <c r="C9" s="190" t="s">
+      <c r="B9" s="164"/>
+      <c r="C9" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="191"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="192"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="174"/>
+      <c r="K9" s="175"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -3551,16 +3551,16 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="27.75" customHeight="1" thickBot="1">
-      <c r="C11" s="178"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
     </row>
     <row r="12" spans="2:17" ht="19.5">
       <c r="B12" s="130"/>
@@ -3575,18 +3575,18 @@
       <c r="K12" s="143"/>
     </row>
     <row r="13" spans="2:17" ht="15">
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="176"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="158"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="159"/>
     </row>
     <row r="14" spans="2:17" ht="15">
       <c r="B14" s="125"/>
@@ -3601,13 +3601,13 @@
       <c r="K14" s="144"/>
     </row>
     <row r="15" spans="2:17" ht="15">
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="157" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="158"/>
       <c r="G15" s="154"/>
       <c r="H15" s="154"/>
       <c r="I15" s="12"/>
@@ -3627,10 +3627,10 @@
       <c r="K16" s="144"/>
     </row>
     <row r="17" spans="2:11" ht="15">
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="157" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="175"/>
+      <c r="C17" s="158"/>
       <c r="D17" s="134"/>
       <c r="E17" s="134"/>
       <c r="F17" s="134"/>
@@ -3653,17 +3653,17 @@
       <c r="K18" s="144"/>
     </row>
     <row r="19" spans="2:11" ht="15">
-      <c r="B19" s="174" t="s">
+      <c r="B19" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="175"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="175"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="158"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
       <c r="K19" s="145"/>
     </row>
     <row r="20" spans="2:11" ht="15">
@@ -3723,42 +3723,42 @@
     </row>
     <row r="25" spans="2:11" ht="30.75" customHeight="1" thickBot="1">
       <c r="C25" s="7"/>
-      <c r="E25" s="165" t="s">
+      <c r="E25" s="185" t="s">
         <v>106</v>
       </c>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="167"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="187"/>
     </row>
     <row r="26" spans="2:11" ht="39" customHeight="1" thickBot="1">
-      <c r="B26" s="172" t="s">
+      <c r="B26" s="192" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="172"/>
-      <c r="D26" s="173"/>
+      <c r="C26" s="192"/>
+      <c r="D26" s="193"/>
       <c r="E26" s="155" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="155" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="155" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="G26" s="155" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="155" t="s">
-        <v>112</v>
-      </c>
-      <c r="I26" s="170" t="s">
+      <c r="I26" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="J26" s="170" t="s">
+      <c r="J26" s="190" t="s">
         <v>105</v>
       </c>
-      <c r="K26" s="168" t="s">
-        <v>110</v>
+      <c r="K26" s="188" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="149" customFormat="1" ht="44.25" customHeight="1" thickBot="1">
@@ -3771,21 +3771,21 @@
       <c r="D27" s="148" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="326" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="326" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="326" t="s">
-        <v>115</v>
-      </c>
-      <c r="H27" s="326" t="s">
-        <v>115</v>
-      </c>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="169"/>
+      <c r="E27" s="156" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="156" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="156" t="s">
+        <v>114</v>
+      </c>
+      <c r="H27" s="156" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="191"/>
+      <c r="J27" s="191"/>
+      <c r="K27" s="189"/>
     </row>
     <row r="28" spans="2:11" ht="35.25" customHeight="1" thickBot="1">
       <c r="B28" s="151"/>
@@ -4101,61 +4101,61 @@
       <c r="L53" s="8"/>
     </row>
     <row r="54" spans="2:14">
-      <c r="B54" s="156" t="s">
+      <c r="B54" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="157"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="157"/>
-      <c r="K54" s="158"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="177"/>
+      <c r="G54" s="177"/>
+      <c r="H54" s="177"/>
+      <c r="I54" s="177"/>
+      <c r="J54" s="177"/>
+      <c r="K54" s="178"/>
       <c r="L54" s="139"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="2:14">
-      <c r="B55" s="159"/>
-      <c r="C55" s="160"/>
-      <c r="D55" s="160"/>
-      <c r="E55" s="160"/>
-      <c r="F55" s="160"/>
-      <c r="G55" s="160"/>
-      <c r="H55" s="160"/>
-      <c r="I55" s="160"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="161"/>
+      <c r="B55" s="179"/>
+      <c r="C55" s="180"/>
+      <c r="D55" s="180"/>
+      <c r="E55" s="180"/>
+      <c r="F55" s="180"/>
+      <c r="G55" s="180"/>
+      <c r="H55" s="180"/>
+      <c r="I55" s="180"/>
+      <c r="J55" s="180"/>
+      <c r="K55" s="181"/>
       <c r="L55" s="139"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="159"/>
-      <c r="C56" s="160"/>
-      <c r="D56" s="160"/>
-      <c r="E56" s="160"/>
-      <c r="F56" s="160"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="160"/>
-      <c r="I56" s="160"/>
-      <c r="J56" s="160"/>
-      <c r="K56" s="161"/>
+      <c r="B56" s="179"/>
+      <c r="C56" s="180"/>
+      <c r="D56" s="180"/>
+      <c r="E56" s="180"/>
+      <c r="F56" s="180"/>
+      <c r="G56" s="180"/>
+      <c r="H56" s="180"/>
+      <c r="I56" s="180"/>
+      <c r="J56" s="180"/>
+      <c r="K56" s="181"/>
       <c r="L56" s="139"/>
     </row>
     <row r="57" spans="2:14" ht="13.5" thickBot="1">
-      <c r="B57" s="162"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
-      <c r="E57" s="163"/>
-      <c r="F57" s="163"/>
-      <c r="G57" s="163"/>
-      <c r="H57" s="163"/>
-      <c r="I57" s="163"/>
-      <c r="J57" s="163"/>
-      <c r="K57" s="164"/>
+      <c r="B57" s="182"/>
+      <c r="C57" s="183"/>
+      <c r="D57" s="183"/>
+      <c r="E57" s="183"/>
+      <c r="F57" s="183"/>
+      <c r="G57" s="183"/>
+      <c r="H57" s="183"/>
+      <c r="I57" s="183"/>
+      <c r="J57" s="183"/>
+      <c r="K57" s="184"/>
       <c r="L57" s="139"/>
     </row>
     <row r="58" spans="2:14">
@@ -4189,6 +4189,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B54:K57"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B19:J19"/>
@@ -4199,12 +4205,6 @@
     <mergeCell ref="C5:K6"/>
     <mergeCell ref="C7:K7"/>
     <mergeCell ref="C9:K9"/>
-    <mergeCell ref="B54:K57"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.16" top="0.39" bottom="1" header="0" footer="0"/>
@@ -4234,75 +4234,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="48" customHeight="1">
-      <c r="A1" s="311"/>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="313"/>
+      <c r="A1" s="194"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="196"/>
     </row>
     <row r="2" spans="1:20" ht="51" customHeight="1">
-      <c r="A2" s="323" t="s">
+      <c r="A2" s="206" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="324"/>
-      <c r="I2" s="324"/>
-      <c r="J2" s="324"/>
-      <c r="K2" s="324"/>
-      <c r="L2" s="324"/>
-      <c r="M2" s="324"/>
-      <c r="N2" s="325"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="208"/>
       <c r="O2" s="119"/>
     </row>
     <row r="3" spans="1:20" ht="39.75" customHeight="1">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="316"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="198"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="199"/>
     </row>
     <row r="4" spans="1:20" ht="40.5" customHeight="1">
-      <c r="A4" s="317" t="s">
+      <c r="A4" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="318"/>
-      <c r="C4" s="318"/>
-      <c r="D4" s="318"/>
-      <c r="E4" s="318"/>
-      <c r="F4" s="318"/>
-      <c r="G4" s="318"/>
-      <c r="H4" s="318"/>
-      <c r="I4" s="318"/>
-      <c r="J4" s="318"/>
-      <c r="K4" s="318"/>
-      <c r="L4" s="318"/>
-      <c r="M4" s="318"/>
-      <c r="N4" s="319"/>
+      <c r="B4" s="201"/>
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="201"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="202"/>
       <c r="O4" s="120"/>
       <c r="P4" s="120"/>
       <c r="Q4" s="120"/>
@@ -4310,20 +4310,20 @@
       <c r="S4" s="120"/>
     </row>
     <row r="5" spans="1:20" s="121" customFormat="1" ht="3" customHeight="1">
-      <c r="A5" s="320"/>
-      <c r="B5" s="321"/>
-      <c r="C5" s="321"/>
-      <c r="D5" s="321"/>
-      <c r="E5" s="321"/>
-      <c r="F5" s="321"/>
-      <c r="G5" s="321"/>
-      <c r="H5" s="321"/>
-      <c r="I5" s="321"/>
-      <c r="J5" s="321"/>
-      <c r="K5" s="321"/>
-      <c r="L5" s="321"/>
-      <c r="M5" s="321"/>
-      <c r="N5" s="322"/>
+      <c r="A5" s="203"/>
+      <c r="B5" s="204"/>
+      <c r="C5" s="204"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="204"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="204"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="204"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="204"/>
+      <c r="L5" s="204"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="205"/>
       <c r="O5" s="115"/>
       <c r="P5" s="115"/>
       <c r="Q5" s="115"/>
@@ -4331,22 +4331,22 @@
       <c r="S5" s="115"/>
     </row>
     <row r="6" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A6" s="296" t="s">
+      <c r="A6" s="209" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="297"/>
-      <c r="C6" s="298"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="297"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
-      <c r="H6" s="298"/>
-      <c r="I6" s="298"/>
-      <c r="J6" s="298"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="298"/>
-      <c r="M6" s="298"/>
-      <c r="N6" s="299"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="210"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="212"/>
       <c r="O6" s="120"/>
       <c r="P6" s="120"/>
       <c r="Q6" s="120"/>
@@ -4354,24 +4354,24 @@
       <c r="S6" s="120"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="302" t="s">
+      <c r="A7" s="215" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="303"/>
+      <c r="B7" s="216"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="304" t="s">
+      <c r="D7" s="217" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="305"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="212"/>
+      <c r="E7" s="218"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="220"/>
+      <c r="L7" s="220"/>
+      <c r="M7" s="220"/>
+      <c r="N7" s="221"/>
       <c r="O7" s="120"/>
       <c r="P7" s="120"/>
       <c r="Q7" s="120"/>
@@ -4382,23 +4382,23 @@
       <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="210"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="306" t="s">
+      <c r="B8" s="219"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="222" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="307"/>
+      <c r="E8" s="223"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="308" t="s">
+      <c r="G8" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="309"/>
-      <c r="I8" s="309"/>
-      <c r="J8" s="310"/>
-      <c r="K8" s="210"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="212"/>
+      <c r="H8" s="225"/>
+      <c r="I8" s="225"/>
+      <c r="J8" s="226"/>
+      <c r="K8" s="219"/>
+      <c r="L8" s="220"/>
+      <c r="M8" s="220"/>
+      <c r="N8" s="221"/>
       <c r="O8" s="120"/>
       <c r="P8" s="120"/>
       <c r="Q8" s="120"/>
@@ -4406,22 +4406,22 @@
       <c r="S8" s="120"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="300" t="s">
+      <c r="A9" s="213" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="301"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="212"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="219"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="220"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="220"/>
+      <c r="K9" s="220"/>
+      <c r="L9" s="220"/>
+      <c r="M9" s="220"/>
+      <c r="N9" s="221"/>
       <c r="O9" s="120"/>
       <c r="P9" s="115"/>
       <c r="Q9" s="120"/>
@@ -4429,22 +4429,22 @@
       <c r="S9" s="120"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="208" t="s">
+      <c r="A10" s="295" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="209"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="211"/>
-      <c r="N10" s="212"/>
+      <c r="B10" s="296"/>
+      <c r="C10" s="219"/>
+      <c r="D10" s="220"/>
+      <c r="E10" s="220"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="220"/>
+      <c r="I10" s="220"/>
+      <c r="J10" s="220"/>
+      <c r="K10" s="220"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="220"/>
+      <c r="N10" s="221"/>
       <c r="O10" s="120"/>
       <c r="P10" s="120"/>
       <c r="Q10" s="120"/>
@@ -4497,22 +4497,22 @@
       <c r="T12" s="115"/>
     </row>
     <row r="13" spans="1:20" ht="21" customHeight="1">
-      <c r="A13" s="213" t="s">
+      <c r="A13" s="297" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="214"/>
-      <c r="C13" s="214"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="214"/>
-      <c r="J13" s="214"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="215"/>
+      <c r="B13" s="298"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="298"/>
+      <c r="M13" s="298"/>
+      <c r="N13" s="299"/>
       <c r="O13" s="120"/>
       <c r="P13" s="120"/>
       <c r="Q13" s="120"/>
@@ -4547,10 +4547,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="29"/>
-      <c r="C15" s="216" t="s">
+      <c r="C15" s="300" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="217"/>
+      <c r="D15" s="301"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31" t="s">
         <v>18</v>
@@ -4578,14 +4578,14 @@
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="233" t="s">
+      <c r="F16" s="234" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="233"/>
-      <c r="H16" s="233"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="234"/>
+      <c r="G16" s="234"/>
+      <c r="H16" s="234"/>
+      <c r="I16" s="234"/>
+      <c r="J16" s="234"/>
+      <c r="K16" s="235"/>
       <c r="L16" s="38"/>
       <c r="M16" s="39"/>
       <c r="N16" s="34"/>
@@ -4604,14 +4604,14 @@
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="233" t="s">
+      <c r="F17" s="234" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="233"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="234"/>
+      <c r="G17" s="234"/>
+      <c r="H17" s="234"/>
+      <c r="I17" s="234"/>
+      <c r="J17" s="234"/>
+      <c r="K17" s="235"/>
       <c r="L17" s="38"/>
       <c r="M17" s="39"/>
       <c r="N17" s="34"/>
@@ -4623,21 +4623,21 @@
       <c r="T17" s="120"/>
     </row>
     <row r="18" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A18" s="235" t="s">
+      <c r="A18" s="230" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="236"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="283"/>
+      <c r="B18" s="231"/>
+      <c r="C18" s="231"/>
+      <c r="D18" s="232"/>
       <c r="E18" s="44"/>
-      <c r="F18" s="285" t="s">
+      <c r="F18" s="237" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="285"/>
-      <c r="H18" s="285"/>
-      <c r="I18" s="285"/>
-      <c r="J18" s="285"/>
-      <c r="K18" s="286"/>
+      <c r="G18" s="237"/>
+      <c r="H18" s="237"/>
+      <c r="I18" s="237"/>
+      <c r="J18" s="237"/>
+      <c r="K18" s="238"/>
       <c r="L18" s="38"/>
       <c r="M18" s="39"/>
       <c r="N18" s="34"/>
@@ -4649,11 +4649,11 @@
       <c r="T18" s="120"/>
     </row>
     <row r="19" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A19" s="237" t="s">
+      <c r="A19" s="233" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="233"/>
-      <c r="C19" s="234"/>
+      <c r="B19" s="234"/>
+      <c r="C19" s="235"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="32"/>
@@ -4673,21 +4673,21 @@
       <c r="T19" s="120"/>
     </row>
     <row r="20" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A20" s="237" t="s">
+      <c r="A20" s="233" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="234"/>
+      <c r="B20" s="234"/>
+      <c r="C20" s="235"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="284" t="s">
+      <c r="F20" s="236" t="s">
         <v>88</v>
       </c>
-      <c r="G20" s="284"/>
-      <c r="H20" s="284"/>
-      <c r="I20" s="284"/>
-      <c r="J20" s="284"/>
-      <c r="K20" s="284"/>
+      <c r="G20" s="236"/>
+      <c r="H20" s="236"/>
+      <c r="I20" s="236"/>
+      <c r="J20" s="236"/>
+      <c r="K20" s="236"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="34"/>
@@ -4699,19 +4699,19 @@
       <c r="T20" s="120"/>
     </row>
     <row r="21" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A21" s="237" t="s">
+      <c r="A21" s="233" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="233"/>
+      <c r="B21" s="234"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
-      <c r="F21" s="284"/>
-      <c r="G21" s="284"/>
-      <c r="H21" s="284"/>
-      <c r="I21" s="284"/>
-      <c r="J21" s="284"/>
-      <c r="K21" s="284"/>
+      <c r="F21" s="236"/>
+      <c r="G21" s="236"/>
+      <c r="H21" s="236"/>
+      <c r="I21" s="236"/>
+      <c r="J21" s="236"/>
+      <c r="K21" s="236"/>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="34"/>
@@ -4723,11 +4723,11 @@
       <c r="T21" s="120"/>
     </row>
     <row r="22" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A22" s="237" t="s">
+      <c r="A22" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="233"/>
-      <c r="C22" s="234"/>
+      <c r="B22" s="234"/>
+      <c r="C22" s="235"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="32"/>
@@ -4747,11 +4747,11 @@
       <c r="T22" s="120"/>
     </row>
     <row r="23" spans="1:20" ht="12" customHeight="1">
-      <c r="A23" s="237" t="s">
+      <c r="A23" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="234"/>
+      <c r="B23" s="234"/>
+      <c r="C23" s="235"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="46" t="s">
@@ -4773,11 +4773,11 @@
       <c r="T23" s="120"/>
     </row>
     <row r="24" spans="1:20" ht="12" customHeight="1">
-      <c r="A24" s="237" t="s">
+      <c r="A24" s="233" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="233"/>
-      <c r="C24" s="234"/>
+      <c r="B24" s="234"/>
+      <c r="C24" s="235"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="46" t="s">
@@ -4799,11 +4799,11 @@
       <c r="T24" s="120"/>
     </row>
     <row r="25" spans="1:20" ht="12" customHeight="1">
-      <c r="A25" s="237" t="s">
+      <c r="A25" s="233" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="233"/>
-      <c r="C25" s="234"/>
+      <c r="B25" s="234"/>
+      <c r="C25" s="235"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="52" t="s">
@@ -4825,11 +4825,11 @@
       <c r="T25" s="120"/>
     </row>
     <row r="26" spans="1:20" ht="12" customHeight="1">
-      <c r="A26" s="237" t="s">
+      <c r="A26" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="233"/>
-      <c r="C26" s="234"/>
+      <c r="B26" s="234"/>
+      <c r="C26" s="235"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="57"/>
@@ -4849,20 +4849,20 @@
       <c r="T26" s="120"/>
     </row>
     <row r="27" spans="1:20" ht="12" customHeight="1">
-      <c r="A27" s="293" t="s">
+      <c r="A27" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="294"/>
-      <c r="C27" s="295"/>
+      <c r="B27" s="246"/>
+      <c r="C27" s="247"/>
       <c r="D27" s="38"/>
       <c r="E27" s="60"/>
-      <c r="F27" s="290" t="s">
+      <c r="F27" s="242" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="290"/>
-      <c r="H27" s="290"/>
-      <c r="I27" s="290"/>
-      <c r="J27" s="290"/>
+      <c r="G27" s="242"/>
+      <c r="H27" s="242"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="242"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="M27" s="59"/>
@@ -4875,18 +4875,18 @@
       <c r="T27" s="120"/>
     </row>
     <row r="28" spans="1:20" ht="12" customHeight="1">
-      <c r="A28" s="287" t="s">
+      <c r="A28" s="239" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="288"/>
-      <c r="C28" s="289"/>
+      <c r="B28" s="240"/>
+      <c r="C28" s="241"/>
       <c r="D28" s="38"/>
       <c r="E28" s="60"/>
-      <c r="F28" s="290"/>
-      <c r="G28" s="290"/>
-      <c r="H28" s="290"/>
-      <c r="I28" s="290"/>
-      <c r="J28" s="290"/>
+      <c r="F28" s="242"/>
+      <c r="G28" s="242"/>
+      <c r="H28" s="242"/>
+      <c r="I28" s="242"/>
+      <c r="J28" s="242"/>
       <c r="K28" s="32"/>
       <c r="L28" s="33"/>
       <c r="M28" s="59"/>
@@ -4923,10 +4923,10 @@
       <c r="T29" s="120"/>
     </row>
     <row r="30" spans="1:20" ht="12" customHeight="1">
-      <c r="A30" s="291"/>
-      <c r="B30" s="292"/>
-      <c r="C30" s="292"/>
-      <c r="D30" s="292"/>
+      <c r="A30" s="243"/>
+      <c r="B30" s="244"/>
+      <c r="C30" s="244"/>
+      <c r="D30" s="244"/>
       <c r="E30" s="30"/>
       <c r="F30" s="46" t="s">
         <v>37</v>
@@ -4947,11 +4947,11 @@
       <c r="T30" s="120"/>
     </row>
     <row r="31" spans="1:20" ht="12" customHeight="1">
-      <c r="A31" s="235" t="s">
+      <c r="A31" s="230" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="236"/>
-      <c r="C31" s="236"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="231"/>
       <c r="D31" s="68"/>
       <c r="E31" s="32"/>
       <c r="F31" s="46" t="s">
@@ -4997,12 +4997,12 @@
       <c r="T32" s="120"/>
     </row>
     <row r="33" spans="1:20" ht="12" customHeight="1">
-      <c r="A33" s="237" t="s">
+      <c r="A33" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="234"/>
-      <c r="C33" s="238"/>
-      <c r="D33" s="238"/>
+      <c r="B33" s="235"/>
+      <c r="C33" s="311"/>
+      <c r="D33" s="311"/>
       <c r="E33" s="39"/>
       <c r="F33" s="46" t="s">
         <v>41</v>
@@ -5279,22 +5279,22 @@
       <c r="T44" s="115"/>
     </row>
     <row r="45" spans="1:20" ht="24.95" customHeight="1">
-      <c r="A45" s="280" t="s">
+      <c r="A45" s="227" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="281"/>
-      <c r="C45" s="281"/>
-      <c r="D45" s="281"/>
-      <c r="E45" s="281"/>
-      <c r="F45" s="281"/>
-      <c r="G45" s="281"/>
-      <c r="H45" s="281"/>
-      <c r="I45" s="281"/>
-      <c r="J45" s="281"/>
-      <c r="K45" s="281"/>
-      <c r="L45" s="281"/>
-      <c r="M45" s="281"/>
-      <c r="N45" s="282"/>
+      <c r="B45" s="228"/>
+      <c r="C45" s="228"/>
+      <c r="D45" s="228"/>
+      <c r="E45" s="228"/>
+      <c r="F45" s="228"/>
+      <c r="G45" s="228"/>
+      <c r="H45" s="228"/>
+      <c r="I45" s="228"/>
+      <c r="J45" s="228"/>
+      <c r="K45" s="228"/>
+      <c r="L45" s="228"/>
+      <c r="M45" s="228"/>
+      <c r="N45" s="229"/>
       <c r="O45" s="120"/>
       <c r="P45" s="120"/>
       <c r="Q45" s="120"/>
@@ -5303,22 +5303,22 @@
       <c r="T45" s="120"/>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="194" t="s">
+      <c r="A46" s="313" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="195"/>
-      <c r="C46" s="195"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="195"/>
-      <c r="F46" s="195"/>
-      <c r="G46" s="195"/>
-      <c r="H46" s="195"/>
-      <c r="I46" s="195"/>
-      <c r="J46" s="195"/>
-      <c r="K46" s="195"/>
-      <c r="L46" s="195"/>
-      <c r="M46" s="195"/>
-      <c r="N46" s="196"/>
+      <c r="B46" s="314"/>
+      <c r="C46" s="314"/>
+      <c r="D46" s="314"/>
+      <c r="E46" s="314"/>
+      <c r="F46" s="314"/>
+      <c r="G46" s="314"/>
+      <c r="H46" s="314"/>
+      <c r="I46" s="314"/>
+      <c r="J46" s="314"/>
+      <c r="K46" s="314"/>
+      <c r="L46" s="314"/>
+      <c r="M46" s="314"/>
+      <c r="N46" s="315"/>
       <c r="O46" s="120"/>
       <c r="P46" s="120"/>
       <c r="Q46" s="120"/>
@@ -5327,20 +5327,20 @@
       <c r="T46" s="120"/>
     </row>
     <row r="47" spans="1:20" s="123" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A47" s="197"/>
-      <c r="B47" s="198"/>
-      <c r="C47" s="198"/>
-      <c r="D47" s="198"/>
-      <c r="E47" s="198"/>
-      <c r="F47" s="198"/>
-      <c r="G47" s="198"/>
-      <c r="H47" s="198"/>
-      <c r="I47" s="198"/>
-      <c r="J47" s="198"/>
-      <c r="K47" s="199"/>
-      <c r="L47" s="199"/>
-      <c r="M47" s="199"/>
-      <c r="N47" s="200"/>
+      <c r="A47" s="316"/>
+      <c r="B47" s="317"/>
+      <c r="C47" s="317"/>
+      <c r="D47" s="317"/>
+      <c r="E47" s="317"/>
+      <c r="F47" s="317"/>
+      <c r="G47" s="317"/>
+      <c r="H47" s="317"/>
+      <c r="I47" s="317"/>
+      <c r="J47" s="317"/>
+      <c r="K47" s="318"/>
+      <c r="L47" s="318"/>
+      <c r="M47" s="318"/>
+      <c r="N47" s="319"/>
       <c r="O47" s="122"/>
       <c r="P47" s="122"/>
       <c r="Q47" s="122"/>
@@ -5349,18 +5349,18 @@
       <c r="T47" s="122"/>
     </row>
     <row r="48" spans="1:20" s="123" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A48" s="205" t="s">
+      <c r="A48" s="324" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="206"/>
-      <c r="C48" s="206"/>
-      <c r="D48" s="206"/>
-      <c r="E48" s="206"/>
-      <c r="F48" s="206"/>
-      <c r="G48" s="206"/>
-      <c r="H48" s="206"/>
-      <c r="I48" s="206"/>
-      <c r="J48" s="206"/>
+      <c r="B48" s="325"/>
+      <c r="C48" s="325"/>
+      <c r="D48" s="325"/>
+      <c r="E48" s="325"/>
+      <c r="F48" s="325"/>
+      <c r="G48" s="325"/>
+      <c r="H48" s="325"/>
+      <c r="I48" s="325"/>
+      <c r="J48" s="325"/>
       <c r="K48" s="88">
         <v>1</v>
       </c>
@@ -5381,18 +5381,18 @@
       <c r="T48" s="122"/>
     </row>
     <row r="49" spans="1:20" s="123" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A49" s="207" t="s">
+      <c r="A49" s="326" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="207"/>
-      <c r="C49" s="207"/>
-      <c r="D49" s="207"/>
-      <c r="E49" s="207"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="207"/>
-      <c r="H49" s="207"/>
-      <c r="I49" s="207"/>
-      <c r="J49" s="207"/>
+      <c r="B49" s="326"/>
+      <c r="C49" s="326"/>
+      <c r="D49" s="326"/>
+      <c r="E49" s="326"/>
+      <c r="F49" s="326"/>
+      <c r="G49" s="326"/>
+      <c r="H49" s="326"/>
+      <c r="I49" s="326"/>
+      <c r="J49" s="326"/>
       <c r="K49" s="89"/>
       <c r="L49" s="89"/>
       <c r="M49" s="89"/>
@@ -5405,18 +5405,18 @@
       <c r="T49" s="122"/>
     </row>
     <row r="50" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A50" s="207" t="s">
+      <c r="A50" s="326" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="207"/>
-      <c r="C50" s="207"/>
-      <c r="D50" s="207"/>
-      <c r="E50" s="207"/>
-      <c r="F50" s="207"/>
-      <c r="G50" s="207"/>
-      <c r="H50" s="207"/>
-      <c r="I50" s="207"/>
-      <c r="J50" s="207"/>
+      <c r="B50" s="326"/>
+      <c r="C50" s="326"/>
+      <c r="D50" s="326"/>
+      <c r="E50" s="326"/>
+      <c r="F50" s="326"/>
+      <c r="G50" s="326"/>
+      <c r="H50" s="326"/>
+      <c r="I50" s="326"/>
+      <c r="J50" s="326"/>
       <c r="K50" s="89"/>
       <c r="L50" s="89"/>
       <c r="M50" s="89"/>
@@ -5429,18 +5429,18 @@
       <c r="T50" s="120"/>
     </row>
     <row r="51" spans="1:20" ht="15" customHeight="1">
-      <c r="A51" s="193" t="s">
+      <c r="A51" s="312" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="193"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="193"/>
-      <c r="F51" s="193"/>
-      <c r="G51" s="193"/>
-      <c r="H51" s="193"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="193"/>
+      <c r="B51" s="312"/>
+      <c r="C51" s="312"/>
+      <c r="D51" s="312"/>
+      <c r="E51" s="312"/>
+      <c r="F51" s="312"/>
+      <c r="G51" s="312"/>
+      <c r="H51" s="312"/>
+      <c r="I51" s="312"/>
+      <c r="J51" s="312"/>
       <c r="K51" s="88">
         <v>1</v>
       </c>
@@ -5461,54 +5461,54 @@
       <c r="T51" s="120"/>
     </row>
     <row r="52" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A52" s="204" t="s">
+      <c r="A52" s="323" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="204"/>
-      <c r="C52" s="204"/>
-      <c r="D52" s="204"/>
-      <c r="E52" s="204"/>
-      <c r="F52" s="204"/>
-      <c r="G52" s="204"/>
-      <c r="H52" s="204"/>
-      <c r="I52" s="204"/>
-      <c r="J52" s="204"/>
+      <c r="B52" s="323"/>
+      <c r="C52" s="323"/>
+      <c r="D52" s="323"/>
+      <c r="E52" s="323"/>
+      <c r="F52" s="323"/>
+      <c r="G52" s="323"/>
+      <c r="H52" s="323"/>
+      <c r="I52" s="323"/>
+      <c r="J52" s="323"/>
       <c r="K52" s="90"/>
       <c r="L52" s="90"/>
       <c r="M52" s="90"/>
       <c r="N52" s="90"/>
     </row>
     <row r="53" spans="1:20" s="120" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A53" s="204" t="s">
+      <c r="A53" s="323" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="204"/>
-      <c r="C53" s="204"/>
-      <c r="D53" s="204"/>
-      <c r="E53" s="204"/>
-      <c r="F53" s="204"/>
-      <c r="G53" s="204"/>
-      <c r="H53" s="204"/>
-      <c r="I53" s="204"/>
-      <c r="J53" s="204"/>
+      <c r="B53" s="323"/>
+      <c r="C53" s="323"/>
+      <c r="D53" s="323"/>
+      <c r="E53" s="323"/>
+      <c r="F53" s="323"/>
+      <c r="G53" s="323"/>
+      <c r="H53" s="323"/>
+      <c r="I53" s="323"/>
+      <c r="J53" s="323"/>
       <c r="K53" s="90"/>
       <c r="L53" s="90"/>
       <c r="M53" s="90"/>
       <c r="N53" s="90"/>
     </row>
     <row r="54" spans="1:20" ht="15" customHeight="1">
-      <c r="A54" s="193" t="s">
+      <c r="A54" s="312" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="193"/>
-      <c r="C54" s="193"/>
-      <c r="D54" s="193"/>
-      <c r="E54" s="193"/>
-      <c r="F54" s="193"/>
-      <c r="G54" s="193"/>
-      <c r="H54" s="193"/>
-      <c r="I54" s="193"/>
-      <c r="J54" s="193"/>
+      <c r="B54" s="312"/>
+      <c r="C54" s="312"/>
+      <c r="D54" s="312"/>
+      <c r="E54" s="312"/>
+      <c r="F54" s="312"/>
+      <c r="G54" s="312"/>
+      <c r="H54" s="312"/>
+      <c r="I54" s="312"/>
+      <c r="J54" s="312"/>
       <c r="K54" s="88">
         <v>1</v>
       </c>
@@ -5529,62 +5529,62 @@
       <c r="T54" s="120"/>
     </row>
     <row r="55" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A55" s="204" t="s">
+      <c r="A55" s="323" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="204"/>
-      <c r="C55" s="204"/>
-      <c r="D55" s="204"/>
-      <c r="E55" s="204"/>
-      <c r="F55" s="204"/>
-      <c r="G55" s="204"/>
-      <c r="H55" s="204"/>
-      <c r="I55" s="204"/>
-      <c r="J55" s="204"/>
+      <c r="B55" s="323"/>
+      <c r="C55" s="323"/>
+      <c r="D55" s="323"/>
+      <c r="E55" s="323"/>
+      <c r="F55" s="323"/>
+      <c r="G55" s="323"/>
+      <c r="H55" s="323"/>
+      <c r="I55" s="323"/>
+      <c r="J55" s="323"/>
       <c r="K55" s="90"/>
       <c r="L55" s="90"/>
       <c r="M55" s="90"/>
       <c r="N55" s="90"/>
     </row>
     <row r="56" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A56" s="267" t="s">
+      <c r="A56" s="251" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="267"/>
-      <c r="C56" s="267"/>
-      <c r="D56" s="267"/>
-      <c r="E56" s="267"/>
-      <c r="F56" s="267"/>
-      <c r="G56" s="267"/>
-      <c r="H56" s="267"/>
-      <c r="I56" s="267"/>
-      <c r="J56" s="267"/>
+      <c r="B56" s="251"/>
+      <c r="C56" s="251"/>
+      <c r="D56" s="251"/>
+      <c r="E56" s="251"/>
+      <c r="F56" s="251"/>
+      <c r="G56" s="251"/>
+      <c r="H56" s="251"/>
+      <c r="I56" s="251"/>
+      <c r="J56" s="251"/>
       <c r="K56" s="91"/>
       <c r="L56" s="91"/>
       <c r="M56" s="91"/>
       <c r="N56" s="91"/>
     </row>
     <row r="57" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A57" s="268" t="s">
+      <c r="A57" s="252" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="269"/>
-      <c r="C57" s="269"/>
-      <c r="D57" s="269"/>
-      <c r="E57" s="269"/>
-      <c r="F57" s="270"/>
-      <c r="G57" s="274" t="s">
+      <c r="B57" s="253"/>
+      <c r="C57" s="253"/>
+      <c r="D57" s="253"/>
+      <c r="E57" s="253"/>
+      <c r="F57" s="254"/>
+      <c r="G57" s="258" t="s">
         <v>60</v>
       </c>
-      <c r="H57" s="275"/>
-      <c r="I57" s="275"/>
-      <c r="J57" s="276"/>
-      <c r="K57" s="201" t="s">
+      <c r="H57" s="259"/>
+      <c r="I57" s="259"/>
+      <c r="J57" s="260"/>
+      <c r="K57" s="320" t="s">
         <v>61</v>
       </c>
-      <c r="L57" s="202"/>
-      <c r="M57" s="202"/>
-      <c r="N57" s="203"/>
+      <c r="L57" s="321"/>
+      <c r="M57" s="321"/>
+      <c r="N57" s="322"/>
       <c r="O57" s="120"/>
       <c r="P57" s="120"/>
       <c r="Q57" s="120"/>
@@ -5593,12 +5593,12 @@
       <c r="T57" s="120"/>
     </row>
     <row r="58" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A58" s="271"/>
-      <c r="B58" s="272"/>
-      <c r="C58" s="272"/>
-      <c r="D58" s="272"/>
-      <c r="E58" s="272"/>
-      <c r="F58" s="273"/>
+      <c r="A58" s="255"/>
+      <c r="B58" s="256"/>
+      <c r="C58" s="256"/>
+      <c r="D58" s="256"/>
+      <c r="E58" s="256"/>
+      <c r="F58" s="257"/>
       <c r="G58" s="88">
         <v>1</v>
       </c>
@@ -5631,14 +5631,14 @@
       <c r="T58" s="120"/>
     </row>
     <row r="59" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A59" s="264" t="s">
+      <c r="A59" s="248" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="265"/>
-      <c r="C59" s="265"/>
-      <c r="D59" s="265"/>
-      <c r="E59" s="265"/>
-      <c r="F59" s="266"/>
+      <c r="B59" s="249"/>
+      <c r="C59" s="249"/>
+      <c r="D59" s="249"/>
+      <c r="E59" s="249"/>
+      <c r="F59" s="250"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
       <c r="I59" s="92"/>
@@ -5649,14 +5649,14 @@
       <c r="N59" s="90"/>
     </row>
     <row r="60" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A60" s="264" t="s">
+      <c r="A60" s="248" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="265"/>
-      <c r="C60" s="265"/>
-      <c r="D60" s="265"/>
-      <c r="E60" s="265"/>
-      <c r="F60" s="266"/>
+      <c r="B60" s="249"/>
+      <c r="C60" s="249"/>
+      <c r="D60" s="249"/>
+      <c r="E60" s="249"/>
+      <c r="F60" s="250"/>
       <c r="G60" s="92"/>
       <c r="H60" s="92"/>
       <c r="I60" s="92"/>
@@ -5667,18 +5667,18 @@
       <c r="N60" s="90"/>
     </row>
     <row r="61" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A61" s="277" t="s">
+      <c r="A61" s="261" t="s">
         <v>92</v>
       </c>
-      <c r="B61" s="278"/>
-      <c r="C61" s="278"/>
-      <c r="D61" s="278"/>
-      <c r="E61" s="278"/>
-      <c r="F61" s="278"/>
-      <c r="G61" s="278"/>
-      <c r="H61" s="278"/>
-      <c r="I61" s="278"/>
-      <c r="J61" s="279"/>
+      <c r="B61" s="262"/>
+      <c r="C61" s="262"/>
+      <c r="D61" s="262"/>
+      <c r="E61" s="262"/>
+      <c r="F61" s="262"/>
+      <c r="G61" s="262"/>
+      <c r="H61" s="262"/>
+      <c r="I61" s="262"/>
+      <c r="J61" s="263"/>
       <c r="K61" s="88">
         <v>1</v>
       </c>
@@ -5699,54 +5699,54 @@
       <c r="T61" s="120"/>
     </row>
     <row r="62" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A62" s="264" t="s">
+      <c r="A62" s="248" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="265"/>
-      <c r="C62" s="265"/>
-      <c r="D62" s="265"/>
-      <c r="E62" s="265"/>
-      <c r="F62" s="265"/>
-      <c r="G62" s="265"/>
-      <c r="H62" s="265"/>
-      <c r="I62" s="265"/>
-      <c r="J62" s="266"/>
+      <c r="B62" s="249"/>
+      <c r="C62" s="249"/>
+      <c r="D62" s="249"/>
+      <c r="E62" s="249"/>
+      <c r="F62" s="249"/>
+      <c r="G62" s="249"/>
+      <c r="H62" s="249"/>
+      <c r="I62" s="249"/>
+      <c r="J62" s="250"/>
       <c r="K62" s="93"/>
       <c r="L62" s="90"/>
       <c r="M62" s="90"/>
       <c r="N62" s="90"/>
     </row>
     <row r="63" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A63" s="264" t="s">
+      <c r="A63" s="248" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="265"/>
-      <c r="C63" s="265"/>
-      <c r="D63" s="265"/>
-      <c r="E63" s="265"/>
-      <c r="F63" s="265"/>
-      <c r="G63" s="265"/>
-      <c r="H63" s="265"/>
-      <c r="I63" s="265"/>
-      <c r="J63" s="266"/>
+      <c r="B63" s="249"/>
+      <c r="C63" s="249"/>
+      <c r="D63" s="249"/>
+      <c r="E63" s="249"/>
+      <c r="F63" s="249"/>
+      <c r="G63" s="249"/>
+      <c r="H63" s="249"/>
+      <c r="I63" s="249"/>
+      <c r="J63" s="250"/>
       <c r="K63" s="93"/>
       <c r="L63" s="90"/>
       <c r="M63" s="90"/>
       <c r="N63" s="90"/>
     </row>
     <row r="64" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A64" s="255" t="s">
+      <c r="A64" s="264" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="256"/>
-      <c r="C64" s="256"/>
-      <c r="D64" s="256"/>
-      <c r="E64" s="256"/>
-      <c r="F64" s="256"/>
-      <c r="G64" s="256"/>
-      <c r="H64" s="256"/>
-      <c r="I64" s="256"/>
-      <c r="J64" s="257"/>
+      <c r="B64" s="265"/>
+      <c r="C64" s="265"/>
+      <c r="D64" s="265"/>
+      <c r="E64" s="265"/>
+      <c r="F64" s="265"/>
+      <c r="G64" s="265"/>
+      <c r="H64" s="265"/>
+      <c r="I64" s="265"/>
+      <c r="J64" s="266"/>
       <c r="K64" s="94">
         <v>1</v>
       </c>
@@ -5767,18 +5767,18 @@
       <c r="T64" s="120"/>
     </row>
     <row r="65" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A65" s="264" t="s">
+      <c r="A65" s="248" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="265"/>
-      <c r="C65" s="265"/>
-      <c r="D65" s="265"/>
-      <c r="E65" s="265"/>
-      <c r="F65" s="265"/>
-      <c r="G65" s="265"/>
-      <c r="H65" s="265"/>
-      <c r="I65" s="265"/>
-      <c r="J65" s="266"/>
+      <c r="B65" s="249"/>
+      <c r="C65" s="249"/>
+      <c r="D65" s="249"/>
+      <c r="E65" s="249"/>
+      <c r="F65" s="249"/>
+      <c r="G65" s="249"/>
+      <c r="H65" s="249"/>
+      <c r="I65" s="249"/>
+      <c r="J65" s="250"/>
       <c r="K65" s="90"/>
       <c r="L65" s="90"/>
       <c r="M65" s="90"/>
@@ -5791,18 +5791,18 @@
       <c r="T65" s="120"/>
     </row>
     <row r="66" spans="1:84" ht="25.5" customHeight="1">
-      <c r="A66" s="227" t="s">
+      <c r="A66" s="267" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="228"/>
-      <c r="C66" s="228"/>
-      <c r="D66" s="228"/>
-      <c r="E66" s="228"/>
-      <c r="F66" s="228"/>
-      <c r="G66" s="228"/>
-      <c r="H66" s="228"/>
-      <c r="I66" s="228"/>
-      <c r="J66" s="229"/>
+      <c r="B66" s="268"/>
+      <c r="C66" s="268"/>
+      <c r="D66" s="268"/>
+      <c r="E66" s="268"/>
+      <c r="F66" s="268"/>
+      <c r="G66" s="268"/>
+      <c r="H66" s="268"/>
+      <c r="I66" s="268"/>
+      <c r="J66" s="269"/>
       <c r="K66" s="90"/>
       <c r="L66" s="90"/>
       <c r="M66" s="90"/>
@@ -5815,18 +5815,18 @@
       <c r="T66" s="120"/>
     </row>
     <row r="67" spans="1:84" ht="15" customHeight="1">
-      <c r="A67" s="255" t="s">
+      <c r="A67" s="264" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="256"/>
-      <c r="C67" s="256"/>
-      <c r="D67" s="256"/>
-      <c r="E67" s="256"/>
-      <c r="F67" s="256"/>
-      <c r="G67" s="256"/>
-      <c r="H67" s="256"/>
-      <c r="I67" s="256"/>
-      <c r="J67" s="257"/>
+      <c r="B67" s="265"/>
+      <c r="C67" s="265"/>
+      <c r="D67" s="265"/>
+      <c r="E67" s="265"/>
+      <c r="F67" s="265"/>
+      <c r="G67" s="265"/>
+      <c r="H67" s="265"/>
+      <c r="I67" s="265"/>
+      <c r="J67" s="266"/>
       <c r="K67" s="88">
         <v>1</v>
       </c>
@@ -5847,18 +5847,18 @@
       <c r="T67" s="120"/>
     </row>
     <row r="68" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A68" s="227" t="s">
+      <c r="A68" s="267" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="228"/>
-      <c r="C68" s="228"/>
-      <c r="D68" s="228"/>
-      <c r="E68" s="228"/>
-      <c r="F68" s="228"/>
-      <c r="G68" s="228"/>
-      <c r="H68" s="228"/>
-      <c r="I68" s="228"/>
-      <c r="J68" s="229"/>
+      <c r="B68" s="268"/>
+      <c r="C68" s="268"/>
+      <c r="D68" s="268"/>
+      <c r="E68" s="268"/>
+      <c r="F68" s="268"/>
+      <c r="G68" s="268"/>
+      <c r="H68" s="268"/>
+      <c r="I68" s="268"/>
+      <c r="J68" s="269"/>
       <c r="K68" s="90"/>
       <c r="L68" s="90"/>
       <c r="M68" s="90"/>
@@ -5871,18 +5871,18 @@
       <c r="T68" s="120"/>
     </row>
     <row r="69" spans="1:84" ht="26.25" customHeight="1">
-      <c r="A69" s="258" t="s">
+      <c r="A69" s="270" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="259"/>
-      <c r="C69" s="259"/>
-      <c r="D69" s="259"/>
-      <c r="E69" s="259"/>
-      <c r="F69" s="259"/>
-      <c r="G69" s="259"/>
-      <c r="H69" s="259"/>
-      <c r="I69" s="259"/>
-      <c r="J69" s="260"/>
+      <c r="B69" s="271"/>
+      <c r="C69" s="271"/>
+      <c r="D69" s="271"/>
+      <c r="E69" s="271"/>
+      <c r="F69" s="271"/>
+      <c r="G69" s="271"/>
+      <c r="H69" s="271"/>
+      <c r="I69" s="271"/>
+      <c r="J69" s="272"/>
       <c r="K69" s="91"/>
       <c r="L69" s="91"/>
       <c r="M69" s="91"/>
@@ -5895,22 +5895,22 @@
       <c r="T69" s="120"/>
     </row>
     <row r="70" spans="1:84" ht="15" customHeight="1">
-      <c r="A70" s="261" t="s">
+      <c r="A70" s="273" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="262"/>
-      <c r="C70" s="262"/>
-      <c r="D70" s="262"/>
-      <c r="E70" s="262"/>
-      <c r="F70" s="262"/>
-      <c r="G70" s="262"/>
-      <c r="H70" s="262"/>
-      <c r="I70" s="262"/>
-      <c r="J70" s="262"/>
-      <c r="K70" s="262"/>
-      <c r="L70" s="262"/>
-      <c r="M70" s="262"/>
-      <c r="N70" s="263"/>
+      <c r="B70" s="274"/>
+      <c r="C70" s="274"/>
+      <c r="D70" s="274"/>
+      <c r="E70" s="274"/>
+      <c r="F70" s="274"/>
+      <c r="G70" s="274"/>
+      <c r="H70" s="274"/>
+      <c r="I70" s="274"/>
+      <c r="J70" s="274"/>
+      <c r="K70" s="274"/>
+      <c r="L70" s="274"/>
+      <c r="M70" s="274"/>
+      <c r="N70" s="275"/>
       <c r="O70" s="120"/>
       <c r="P70" s="120"/>
       <c r="Q70" s="120"/>
@@ -5941,18 +5941,18 @@
       <c r="T71" s="120"/>
     </row>
     <row r="72" spans="1:84" ht="25.5" customHeight="1">
-      <c r="A72" s="227" t="s">
+      <c r="A72" s="267" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="228"/>
-      <c r="C72" s="228"/>
-      <c r="D72" s="228"/>
-      <c r="E72" s="228"/>
-      <c r="F72" s="228"/>
-      <c r="G72" s="228"/>
-      <c r="H72" s="228"/>
-      <c r="I72" s="228"/>
-      <c r="J72" s="229"/>
+      <c r="B72" s="268"/>
+      <c r="C72" s="268"/>
+      <c r="D72" s="268"/>
+      <c r="E72" s="268"/>
+      <c r="F72" s="268"/>
+      <c r="G72" s="268"/>
+      <c r="H72" s="268"/>
+      <c r="I72" s="268"/>
+      <c r="J72" s="269"/>
       <c r="K72" s="101" t="s">
         <v>96</v>
       </c>
@@ -5969,18 +5969,18 @@
       <c r="T72" s="120"/>
     </row>
     <row r="73" spans="1:84" ht="23.25" customHeight="1">
-      <c r="A73" s="227" t="s">
+      <c r="A73" s="267" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="228"/>
-      <c r="C73" s="228"/>
-      <c r="D73" s="228"/>
-      <c r="E73" s="228"/>
-      <c r="F73" s="228"/>
-      <c r="G73" s="228"/>
-      <c r="H73" s="228"/>
-      <c r="I73" s="228"/>
-      <c r="J73" s="229"/>
+      <c r="B73" s="268"/>
+      <c r="C73" s="268"/>
+      <c r="D73" s="268"/>
+      <c r="E73" s="268"/>
+      <c r="F73" s="268"/>
+      <c r="G73" s="268"/>
+      <c r="H73" s="268"/>
+      <c r="I73" s="268"/>
+      <c r="J73" s="269"/>
       <c r="K73" s="101" t="s">
         <v>96</v>
       </c>
@@ -6019,18 +6019,18 @@
       <c r="T74" s="120"/>
     </row>
     <row r="75" spans="1:84" ht="15" customHeight="1">
-      <c r="A75" s="230" t="s">
+      <c r="A75" s="289" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="231"/>
-      <c r="C75" s="231"/>
-      <c r="D75" s="231"/>
-      <c r="E75" s="231"/>
-      <c r="F75" s="231"/>
-      <c r="G75" s="231"/>
-      <c r="H75" s="231"/>
-      <c r="I75" s="231"/>
-      <c r="J75" s="232"/>
+      <c r="B75" s="290"/>
+      <c r="C75" s="290"/>
+      <c r="D75" s="290"/>
+      <c r="E75" s="290"/>
+      <c r="F75" s="290"/>
+      <c r="G75" s="290"/>
+      <c r="H75" s="290"/>
+      <c r="I75" s="290"/>
+      <c r="J75" s="291"/>
       <c r="K75" s="88">
         <v>1</v>
       </c>
@@ -6115,18 +6115,18 @@
       <c r="CF75" s="120"/>
     </row>
     <row r="76" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A76" s="249" t="s">
+      <c r="A76" s="286" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="250"/>
-      <c r="C76" s="250"/>
-      <c r="D76" s="250"/>
-      <c r="E76" s="250"/>
-      <c r="F76" s="250"/>
-      <c r="G76" s="250"/>
-      <c r="H76" s="250"/>
-      <c r="I76" s="250"/>
-      <c r="J76" s="251"/>
+      <c r="B76" s="287"/>
+      <c r="C76" s="287"/>
+      <c r="D76" s="287"/>
+      <c r="E76" s="287"/>
+      <c r="F76" s="287"/>
+      <c r="G76" s="287"/>
+      <c r="H76" s="287"/>
+      <c r="I76" s="287"/>
+      <c r="J76" s="288"/>
       <c r="K76" s="109"/>
       <c r="L76" s="109"/>
       <c r="M76" s="109"/>
@@ -6203,18 +6203,18 @@
       <c r="CF76" s="120"/>
     </row>
     <row r="77" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A77" s="249" t="s">
+      <c r="A77" s="286" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="250"/>
-      <c r="C77" s="250"/>
-      <c r="D77" s="250"/>
-      <c r="E77" s="250"/>
-      <c r="F77" s="250"/>
-      <c r="G77" s="250"/>
-      <c r="H77" s="250"/>
-      <c r="I77" s="250"/>
-      <c r="J77" s="251"/>
+      <c r="B77" s="287"/>
+      <c r="C77" s="287"/>
+      <c r="D77" s="287"/>
+      <c r="E77" s="287"/>
+      <c r="F77" s="287"/>
+      <c r="G77" s="287"/>
+      <c r="H77" s="287"/>
+      <c r="I77" s="287"/>
+      <c r="J77" s="288"/>
       <c r="K77" s="109"/>
       <c r="L77" s="109"/>
       <c r="M77" s="109"/>
@@ -6291,18 +6291,18 @@
       <c r="CF77" s="120"/>
     </row>
     <row r="78" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A78" s="249" t="s">
+      <c r="A78" s="286" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="250"/>
-      <c r="C78" s="250"/>
-      <c r="D78" s="250"/>
-      <c r="E78" s="250"/>
-      <c r="F78" s="250"/>
-      <c r="G78" s="250"/>
-      <c r="H78" s="250"/>
-      <c r="I78" s="250"/>
-      <c r="J78" s="251"/>
+      <c r="B78" s="287"/>
+      <c r="C78" s="287"/>
+      <c r="D78" s="287"/>
+      <c r="E78" s="287"/>
+      <c r="F78" s="287"/>
+      <c r="G78" s="287"/>
+      <c r="H78" s="287"/>
+      <c r="I78" s="287"/>
+      <c r="J78" s="288"/>
       <c r="K78" s="109"/>
       <c r="L78" s="109"/>
       <c r="M78" s="109"/>
@@ -6379,18 +6379,18 @@
       <c r="CF78" s="120"/>
     </row>
     <row r="79" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A79" s="249" t="s">
+      <c r="A79" s="286" t="s">
         <v>76</v>
       </c>
-      <c r="B79" s="250"/>
-      <c r="C79" s="250"/>
-      <c r="D79" s="250"/>
-      <c r="E79" s="250"/>
-      <c r="F79" s="250"/>
-      <c r="G79" s="250"/>
-      <c r="H79" s="250"/>
-      <c r="I79" s="250"/>
-      <c r="J79" s="251"/>
+      <c r="B79" s="287"/>
+      <c r="C79" s="287"/>
+      <c r="D79" s="287"/>
+      <c r="E79" s="287"/>
+      <c r="F79" s="287"/>
+      <c r="G79" s="287"/>
+      <c r="H79" s="287"/>
+      <c r="I79" s="287"/>
+      <c r="J79" s="288"/>
       <c r="K79" s="109"/>
       <c r="L79" s="109"/>
       <c r="M79" s="109"/>
@@ -6467,18 +6467,18 @@
       <c r="CF79" s="120"/>
     </row>
     <row r="80" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A80" s="249" t="s">
+      <c r="A80" s="286" t="s">
         <v>77</v>
       </c>
-      <c r="B80" s="250"/>
-      <c r="C80" s="250"/>
-      <c r="D80" s="250"/>
-      <c r="E80" s="250"/>
-      <c r="F80" s="250"/>
-      <c r="G80" s="250"/>
-      <c r="H80" s="250"/>
-      <c r="I80" s="250"/>
-      <c r="J80" s="251"/>
+      <c r="B80" s="287"/>
+      <c r="C80" s="287"/>
+      <c r="D80" s="287"/>
+      <c r="E80" s="287"/>
+      <c r="F80" s="287"/>
+      <c r="G80" s="287"/>
+      <c r="H80" s="287"/>
+      <c r="I80" s="287"/>
+      <c r="J80" s="288"/>
       <c r="K80" s="109"/>
       <c r="L80" s="109"/>
       <c r="M80" s="109"/>
@@ -6555,18 +6555,18 @@
       <c r="CF80" s="120"/>
     </row>
     <row r="81" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A81" s="240" t="s">
+      <c r="A81" s="277" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="241"/>
-      <c r="C81" s="241"/>
-      <c r="D81" s="241"/>
-      <c r="E81" s="241"/>
-      <c r="F81" s="241"/>
-      <c r="G81" s="241"/>
-      <c r="H81" s="241"/>
-      <c r="I81" s="241"/>
-      <c r="J81" s="242"/>
+      <c r="B81" s="278"/>
+      <c r="C81" s="278"/>
+      <c r="D81" s="278"/>
+      <c r="E81" s="278"/>
+      <c r="F81" s="278"/>
+      <c r="G81" s="278"/>
+      <c r="H81" s="278"/>
+      <c r="I81" s="278"/>
+      <c r="J81" s="279"/>
       <c r="K81" s="88">
         <v>1</v>
       </c>
@@ -6651,16 +6651,16 @@
       <c r="CF81" s="120"/>
     </row>
     <row r="82" spans="1:84" ht="14.1" customHeight="1">
-      <c r="A82" s="243"/>
-      <c r="B82" s="244"/>
-      <c r="C82" s="244"/>
-      <c r="D82" s="244"/>
-      <c r="E82" s="244"/>
-      <c r="F82" s="244"/>
-      <c r="G82" s="244"/>
-      <c r="H82" s="244"/>
-      <c r="I82" s="244"/>
-      <c r="J82" s="245"/>
+      <c r="A82" s="280"/>
+      <c r="B82" s="281"/>
+      <c r="C82" s="281"/>
+      <c r="D82" s="281"/>
+      <c r="E82" s="281"/>
+      <c r="F82" s="281"/>
+      <c r="G82" s="281"/>
+      <c r="H82" s="281"/>
+      <c r="I82" s="281"/>
+      <c r="J82" s="282"/>
       <c r="K82" s="110"/>
       <c r="L82" s="110"/>
       <c r="M82" s="110"/>
@@ -6737,22 +6737,22 @@
       <c r="CF82" s="120"/>
     </row>
     <row r="83" spans="1:84" ht="15" customHeight="1">
-      <c r="A83" s="246" t="s">
+      <c r="A83" s="283" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="247"/>
-      <c r="C83" s="247"/>
-      <c r="D83" s="247"/>
-      <c r="E83" s="247"/>
-      <c r="F83" s="247"/>
-      <c r="G83" s="247"/>
-      <c r="H83" s="247"/>
-      <c r="I83" s="247"/>
-      <c r="J83" s="247"/>
-      <c r="K83" s="247"/>
-      <c r="L83" s="247"/>
-      <c r="M83" s="247"/>
-      <c r="N83" s="248"/>
+      <c r="B83" s="284"/>
+      <c r="C83" s="284"/>
+      <c r="D83" s="284"/>
+      <c r="E83" s="284"/>
+      <c r="F83" s="284"/>
+      <c r="G83" s="284"/>
+      <c r="H83" s="284"/>
+      <c r="I83" s="284"/>
+      <c r="J83" s="284"/>
+      <c r="K83" s="284"/>
+      <c r="L83" s="284"/>
+      <c r="M83" s="284"/>
+      <c r="N83" s="285"/>
       <c r="O83" s="120"/>
       <c r="P83" s="120"/>
       <c r="Q83" s="120"/>
@@ -6825,20 +6825,20 @@
       <c r="CF83" s="120"/>
     </row>
     <row r="84" spans="1:84">
-      <c r="A84" s="218"/>
-      <c r="B84" s="219"/>
-      <c r="C84" s="219"/>
-      <c r="D84" s="219"/>
-      <c r="E84" s="219"/>
-      <c r="F84" s="219"/>
-      <c r="G84" s="219"/>
-      <c r="H84" s="219"/>
-      <c r="I84" s="219"/>
-      <c r="J84" s="219"/>
-      <c r="K84" s="219"/>
-      <c r="L84" s="219"/>
-      <c r="M84" s="219"/>
-      <c r="N84" s="220"/>
+      <c r="A84" s="302"/>
+      <c r="B84" s="303"/>
+      <c r="C84" s="303"/>
+      <c r="D84" s="303"/>
+      <c r="E84" s="303"/>
+      <c r="F84" s="303"/>
+      <c r="G84" s="303"/>
+      <c r="H84" s="303"/>
+      <c r="I84" s="303"/>
+      <c r="J84" s="303"/>
+      <c r="K84" s="303"/>
+      <c r="L84" s="303"/>
+      <c r="M84" s="303"/>
+      <c r="N84" s="304"/>
       <c r="O84" s="120"/>
       <c r="P84" s="120"/>
       <c r="Q84" s="120"/>
@@ -6911,20 +6911,20 @@
       <c r="CF84" s="120"/>
     </row>
     <row r="85" spans="1:84" ht="16.5" customHeight="1">
-      <c r="A85" s="221"/>
-      <c r="B85" s="222"/>
-      <c r="C85" s="222"/>
-      <c r="D85" s="222"/>
-      <c r="E85" s="222"/>
-      <c r="F85" s="222"/>
-      <c r="G85" s="222"/>
-      <c r="H85" s="222"/>
-      <c r="I85" s="222"/>
-      <c r="J85" s="222"/>
-      <c r="K85" s="222"/>
-      <c r="L85" s="222"/>
-      <c r="M85" s="222"/>
-      <c r="N85" s="223"/>
+      <c r="A85" s="305"/>
+      <c r="B85" s="306"/>
+      <c r="C85" s="306"/>
+      <c r="D85" s="306"/>
+      <c r="E85" s="306"/>
+      <c r="F85" s="306"/>
+      <c r="G85" s="306"/>
+      <c r="H85" s="306"/>
+      <c r="I85" s="306"/>
+      <c r="J85" s="306"/>
+      <c r="K85" s="306"/>
+      <c r="L85" s="306"/>
+      <c r="M85" s="306"/>
+      <c r="N85" s="307"/>
       <c r="O85" s="120"/>
       <c r="P85" s="120"/>
       <c r="Q85" s="120"/>
@@ -6933,20 +6933,20 @@
       <c r="T85" s="120"/>
     </row>
     <row r="86" spans="1:84" ht="6.75" customHeight="1">
-      <c r="A86" s="221"/>
-      <c r="B86" s="222"/>
-      <c r="C86" s="222"/>
-      <c r="D86" s="222"/>
-      <c r="E86" s="222"/>
-      <c r="F86" s="222"/>
-      <c r="G86" s="222"/>
-      <c r="H86" s="222"/>
-      <c r="I86" s="222"/>
-      <c r="J86" s="222"/>
-      <c r="K86" s="222"/>
-      <c r="L86" s="222"/>
-      <c r="M86" s="222"/>
-      <c r="N86" s="223"/>
+      <c r="A86" s="305"/>
+      <c r="B86" s="306"/>
+      <c r="C86" s="306"/>
+      <c r="D86" s="306"/>
+      <c r="E86" s="306"/>
+      <c r="F86" s="306"/>
+      <c r="G86" s="306"/>
+      <c r="H86" s="306"/>
+      <c r="I86" s="306"/>
+      <c r="J86" s="306"/>
+      <c r="K86" s="306"/>
+      <c r="L86" s="306"/>
+      <c r="M86" s="306"/>
+      <c r="N86" s="307"/>
       <c r="O86" s="120"/>
       <c r="P86" s="120"/>
       <c r="Q86" s="120"/>
@@ -6955,20 +6955,20 @@
       <c r="T86" s="120"/>
     </row>
     <row r="87" spans="1:84" ht="15" customHeight="1">
-      <c r="A87" s="221"/>
-      <c r="B87" s="222"/>
-      <c r="C87" s="222"/>
-      <c r="D87" s="222"/>
-      <c r="E87" s="222"/>
-      <c r="F87" s="222"/>
-      <c r="G87" s="222"/>
-      <c r="H87" s="222"/>
-      <c r="I87" s="222"/>
-      <c r="J87" s="222"/>
-      <c r="K87" s="222"/>
-      <c r="L87" s="222"/>
-      <c r="M87" s="222"/>
-      <c r="N87" s="223"/>
+      <c r="A87" s="305"/>
+      <c r="B87" s="306"/>
+      <c r="C87" s="306"/>
+      <c r="D87" s="306"/>
+      <c r="E87" s="306"/>
+      <c r="F87" s="306"/>
+      <c r="G87" s="306"/>
+      <c r="H87" s="306"/>
+      <c r="I87" s="306"/>
+      <c r="J87" s="306"/>
+      <c r="K87" s="306"/>
+      <c r="L87" s="306"/>
+      <c r="M87" s="306"/>
+      <c r="N87" s="307"/>
       <c r="O87" s="120"/>
       <c r="P87" s="120"/>
       <c r="Q87" s="120"/>
@@ -6977,20 +6977,20 @@
       <c r="T87" s="120"/>
     </row>
     <row r="88" spans="1:84">
-      <c r="A88" s="221"/>
-      <c r="B88" s="222"/>
-      <c r="C88" s="222"/>
-      <c r="D88" s="222"/>
-      <c r="E88" s="222"/>
-      <c r="F88" s="222"/>
-      <c r="G88" s="222"/>
-      <c r="H88" s="222"/>
-      <c r="I88" s="222"/>
-      <c r="J88" s="222"/>
-      <c r="K88" s="222"/>
-      <c r="L88" s="222"/>
-      <c r="M88" s="222"/>
-      <c r="N88" s="223"/>
+      <c r="A88" s="305"/>
+      <c r="B88" s="306"/>
+      <c r="C88" s="306"/>
+      <c r="D88" s="306"/>
+      <c r="E88" s="306"/>
+      <c r="F88" s="306"/>
+      <c r="G88" s="306"/>
+      <c r="H88" s="306"/>
+      <c r="I88" s="306"/>
+      <c r="J88" s="306"/>
+      <c r="K88" s="306"/>
+      <c r="L88" s="306"/>
+      <c r="M88" s="306"/>
+      <c r="N88" s="307"/>
       <c r="O88" s="120"/>
       <c r="P88" s="120"/>
       <c r="Q88" s="120"/>
@@ -6999,20 +6999,20 @@
       <c r="T88" s="120"/>
     </row>
     <row r="89" spans="1:84">
-      <c r="A89" s="224"/>
-      <c r="B89" s="225"/>
-      <c r="C89" s="225"/>
-      <c r="D89" s="225"/>
-      <c r="E89" s="225"/>
-      <c r="F89" s="225"/>
-      <c r="G89" s="225"/>
-      <c r="H89" s="225"/>
-      <c r="I89" s="225"/>
-      <c r="J89" s="225"/>
-      <c r="K89" s="225"/>
-      <c r="L89" s="225"/>
-      <c r="M89" s="225"/>
-      <c r="N89" s="226"/>
+      <c r="A89" s="308"/>
+      <c r="B89" s="309"/>
+      <c r="C89" s="309"/>
+      <c r="D89" s="309"/>
+      <c r="E89" s="309"/>
+      <c r="F89" s="309"/>
+      <c r="G89" s="309"/>
+      <c r="H89" s="309"/>
+      <c r="I89" s="309"/>
+      <c r="J89" s="309"/>
+      <c r="K89" s="309"/>
+      <c r="L89" s="309"/>
+      <c r="M89" s="309"/>
+      <c r="N89" s="310"/>
       <c r="O89" s="120"/>
       <c r="P89" s="120"/>
       <c r="Q89" s="120"/>
@@ -7021,22 +7021,22 @@
       <c r="T89" s="120"/>
     </row>
     <row r="90" spans="1:84">
-      <c r="A90" s="230" t="s">
+      <c r="A90" s="289" t="s">
         <v>80</v>
       </c>
-      <c r="B90" s="231"/>
-      <c r="C90" s="231"/>
-      <c r="D90" s="232"/>
-      <c r="E90" s="252"/>
-      <c r="F90" s="253"/>
-      <c r="G90" s="253"/>
-      <c r="H90" s="253"/>
-      <c r="I90" s="253"/>
-      <c r="J90" s="253"/>
-      <c r="K90" s="253"/>
-      <c r="L90" s="253"/>
-      <c r="M90" s="253"/>
-      <c r="N90" s="254"/>
+      <c r="B90" s="290"/>
+      <c r="C90" s="290"/>
+      <c r="D90" s="291"/>
+      <c r="E90" s="292"/>
+      <c r="F90" s="293"/>
+      <c r="G90" s="293"/>
+      <c r="H90" s="293"/>
+      <c r="I90" s="293"/>
+      <c r="J90" s="293"/>
+      <c r="K90" s="293"/>
+      <c r="L90" s="293"/>
+      <c r="M90" s="293"/>
+      <c r="N90" s="294"/>
       <c r="O90" s="120"/>
       <c r="P90" s="120"/>
       <c r="Q90" s="120"/>
@@ -7067,22 +7067,22 @@
       <c r="T91" s="120"/>
     </row>
     <row r="92" spans="1:84" ht="15">
-      <c r="A92" s="239" t="s">
+      <c r="A92" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="B92" s="239"/>
-      <c r="C92" s="239"/>
-      <c r="D92" s="239"/>
-      <c r="E92" s="239"/>
-      <c r="F92" s="239"/>
-      <c r="G92" s="239"/>
-      <c r="H92" s="239"/>
-      <c r="I92" s="239"/>
-      <c r="J92" s="239"/>
-      <c r="K92" s="239"/>
-      <c r="L92" s="239"/>
-      <c r="M92" s="239"/>
-      <c r="N92" s="239"/>
+      <c r="B92" s="276"/>
+      <c r="C92" s="276"/>
+      <c r="D92" s="276"/>
+      <c r="E92" s="276"/>
+      <c r="F92" s="276"/>
+      <c r="G92" s="276"/>
+      <c r="H92" s="276"/>
+      <c r="I92" s="276"/>
+      <c r="J92" s="276"/>
+      <c r="K92" s="276"/>
+      <c r="L92" s="276"/>
+      <c r="M92" s="276"/>
+      <c r="N92" s="276"/>
       <c r="O92" s="120"/>
       <c r="P92" s="120"/>
       <c r="Q92" s="120"/>
@@ -7300,59 +7300,16 @@
     </row>
   </sheetData>
   <mergeCells count="79">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:K21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="F27:J28"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A57:F58"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A70:N70"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A92:N92"/>
-    <mergeCell ref="A81:J82"/>
-    <mergeCell ref="A83:N83"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="E90:N90"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A46:N47"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:N10"/>
     <mergeCell ref="A13:N13"/>
@@ -7369,16 +7326,59 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A46:N47"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A92:N92"/>
+    <mergeCell ref="A81:J82"/>
+    <mergeCell ref="A83:N83"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="E90:N90"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A70:N70"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:F58"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:K21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="F27:J28"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A2:N2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.41" right="0.38" top="0.28000000000000003" bottom="0.18" header="0" footer="0"/>
